--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2212528.85512388</v>
+        <v>-2213122.72183512</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="E11" t="n">
-        <v>29.38001397227853</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>83.69827355632192</v>
       </c>
       <c r="H11" t="n">
-        <v>104.630197212101</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.2347546112463</v>
       </c>
       <c r="V11" t="n">
-        <v>113.5452377002289</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170393</v>
       </c>
     </row>
     <row r="12">
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>6.047422663360209</v>
+        <v>6.04742266336018</v>
       </c>
       <c r="W12" t="n">
-        <v>18.8384664162339</v>
+        <v>18.83846641623387</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>9.884882276754423</v>
+        <v>9.884882276754395</v>
       </c>
       <c r="U13" t="n">
-        <v>64.24262914177301</v>
+        <v>64.24262914177298</v>
       </c>
       <c r="V13" t="n">
-        <v>38.06370773437246</v>
+        <v>38.06370773437243</v>
       </c>
       <c r="W13" t="n">
-        <v>63.23059380498572</v>
+        <v>63.23059380498569</v>
       </c>
       <c r="X13" t="n">
-        <v>8.875695800788833</v>
+        <v>8.875695800788804</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>110.6904970612611</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="H14" t="n">
         <v>104.630197212101</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.2347546112463</v>
+        <v>11.30283095546722</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
     </row>
     <row r="15">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.18608130266756</v>
+        <v>60.18608130266733</v>
       </c>
       <c r="C17" t="n">
-        <v>48.1973982603493</v>
+        <v>48.19739826034908</v>
       </c>
       <c r="D17" t="n">
-        <v>39.17870230487728</v>
+        <v>39.17870230487705</v>
       </c>
       <c r="E17" t="n">
-        <v>60.92083987478281</v>
+        <v>60.92083987478259</v>
       </c>
       <c r="F17" t="n">
-        <v>80.09265596275998</v>
+        <v>80.09265596275975</v>
       </c>
       <c r="G17" t="n">
-        <v>81.55736574630248</v>
+        <v>81.55736574630225</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.69245854284668</v>
+        <v>3.692458542846452</v>
       </c>
       <c r="W17" t="n">
-        <v>28.99255802080359</v>
+        <v>28.99255802080336</v>
       </c>
       <c r="X17" t="n">
-        <v>48.2928162535502</v>
+        <v>48.29281625354997</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.68941404974896</v>
+        <v>59.68941404974873</v>
       </c>
     </row>
     <row r="18">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.1860813026675</v>
+        <v>60.18608130266733</v>
       </c>
       <c r="C20" t="n">
-        <v>48.19739826034925</v>
+        <v>48.19739826034908</v>
       </c>
       <c r="D20" t="n">
-        <v>39.17870230487722</v>
+        <v>39.17870230487705</v>
       </c>
       <c r="E20" t="n">
-        <v>60.92083987478276</v>
+        <v>60.92083987478259</v>
       </c>
       <c r="F20" t="n">
-        <v>80.09265596275992</v>
+        <v>80.09265596275975</v>
       </c>
       <c r="G20" t="n">
-        <v>81.55736574630242</v>
+        <v>81.55736574630248</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.692458542846623</v>
+        <v>3.692458542846452</v>
       </c>
       <c r="W20" t="n">
-        <v>28.99255802080353</v>
+        <v>28.99255802080336</v>
       </c>
       <c r="X20" t="n">
-        <v>48.29281625355014</v>
+        <v>48.29281625354997</v>
       </c>
       <c r="Y20" t="n">
-        <v>59.6894140497489</v>
+        <v>59.68941404974873</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.1860813026675</v>
+        <v>60.18608130266733</v>
       </c>
       <c r="C23" t="n">
-        <v>48.19739826034925</v>
+        <v>48.19739826034908</v>
       </c>
       <c r="D23" t="n">
-        <v>39.17870230487722</v>
+        <v>39.17870230487705</v>
       </c>
       <c r="E23" t="n">
-        <v>60.92083987478276</v>
+        <v>60.92083987478259</v>
       </c>
       <c r="F23" t="n">
-        <v>80.09265596275992</v>
+        <v>80.09265596275975</v>
       </c>
       <c r="G23" t="n">
-        <v>81.55736574630242</v>
+        <v>81.55736574630225</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.692458542846623</v>
+        <v>3.692458542846452</v>
       </c>
       <c r="W23" t="n">
-        <v>28.99255802080353</v>
+        <v>28.99255802080336</v>
       </c>
       <c r="X23" t="n">
-        <v>48.29281625355014</v>
+        <v>48.29281625354997</v>
       </c>
       <c r="Y23" t="n">
-        <v>59.6894140497489</v>
+        <v>59.68941404974873</v>
       </c>
     </row>
     <row r="24">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.9748428097536</v>
+        <v>180.9748428097534</v>
       </c>
       <c r="C26" t="n">
-        <v>168.9861597674353</v>
+        <v>168.9861597674351</v>
       </c>
       <c r="D26" t="n">
-        <v>159.9674638119633</v>
+        <v>159.9674638119631</v>
       </c>
       <c r="E26" t="n">
-        <v>181.7096013818689</v>
+        <v>181.7096013818687</v>
       </c>
       <c r="F26" t="n">
-        <v>200.881417469846</v>
+        <v>200.8814174698458</v>
       </c>
       <c r="G26" t="n">
-        <v>202.3461272533885</v>
+        <v>202.3461272533883</v>
       </c>
       <c r="H26" t="n">
-        <v>115.5661795618048</v>
+        <v>115.5661795618046</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.93598234970385</v>
+        <v>10.93598234970364</v>
       </c>
       <c r="U26" t="n">
-        <v>43.17073696095014</v>
+        <v>43.17073696094994</v>
       </c>
       <c r="V26" t="n">
-        <v>124.4812200499327</v>
+        <v>124.4812200499325</v>
       </c>
       <c r="W26" t="n">
-        <v>149.7813195278896</v>
+        <v>149.7813195278894</v>
       </c>
       <c r="X26" t="n">
-        <v>169.0815777606362</v>
+        <v>169.081577760636</v>
       </c>
       <c r="Y26" t="n">
-        <v>180.478175556835</v>
+        <v>180.4781755568348</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>7.165089697961024</v>
+        <v>7.165089697960825</v>
       </c>
       <c r="V27" t="n">
-        <v>16.98340501306402</v>
+        <v>16.98340501306382</v>
       </c>
       <c r="W27" t="n">
-        <v>29.77444876593771</v>
+        <v>29.77444876593751</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.82086462645823</v>
+        <v>20.82086462645803</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17861149147681</v>
+        <v>75.17861149147662</v>
       </c>
       <c r="V28" t="n">
-        <v>48.99969008407626</v>
+        <v>48.99969008407606</v>
       </c>
       <c r="W28" t="n">
-        <v>74.16657615468952</v>
+        <v>74.16657615468932</v>
       </c>
       <c r="X28" t="n">
-        <v>19.81167815049264</v>
+        <v>19.81167815049244</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.68654590656033</v>
+        <v>10.68654590656013</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>180.9748428097535</v>
+        <v>180.9748428097534</v>
       </c>
       <c r="C29" t="n">
-        <v>168.9861597674353</v>
+        <v>168.9861597674351</v>
       </c>
       <c r="D29" t="n">
-        <v>159.9674638119633</v>
+        <v>159.9674638119631</v>
       </c>
       <c r="E29" t="n">
-        <v>181.7096013818688</v>
+        <v>181.7096013818687</v>
       </c>
       <c r="F29" t="n">
-        <v>200.881417469846</v>
+        <v>200.8814174698458</v>
       </c>
       <c r="G29" t="n">
-        <v>202.3461272533885</v>
+        <v>202.3461272533883</v>
       </c>
       <c r="H29" t="n">
-        <v>115.5661795618048</v>
+        <v>115.5661795618046</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.93598234970379</v>
+        <v>10.93598234970364</v>
       </c>
       <c r="U29" t="n">
-        <v>43.17073696095009</v>
+        <v>43.17073696094994</v>
       </c>
       <c r="V29" t="n">
-        <v>124.4812200499327</v>
+        <v>124.4812200499325</v>
       </c>
       <c r="W29" t="n">
-        <v>149.7813195278896</v>
+        <v>149.7813195278894</v>
       </c>
       <c r="X29" t="n">
-        <v>169.0815777606362</v>
+        <v>169.081577760636</v>
       </c>
       <c r="Y29" t="n">
-        <v>180.4781755568349</v>
+        <v>180.4781755568348</v>
       </c>
     </row>
     <row r="30">
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>7.165089697960967</v>
+        <v>7.165089697960825</v>
       </c>
       <c r="V30" t="n">
-        <v>16.98340501306396</v>
+        <v>16.98340501306382</v>
       </c>
       <c r="W30" t="n">
-        <v>29.77444876593765</v>
+        <v>29.77444876593751</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.82086462645817</v>
+        <v>20.82086462645803</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17861149147676</v>
+        <v>75.17861149147662</v>
       </c>
       <c r="V31" t="n">
-        <v>48.99969008407621</v>
+        <v>48.99969008407606</v>
       </c>
       <c r="W31" t="n">
-        <v>74.16657615468947</v>
+        <v>74.16657615468932</v>
       </c>
       <c r="X31" t="n">
-        <v>19.81167815049258</v>
+        <v>19.81167815049244</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.68654590656027</v>
+        <v>10.68654590656013</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.9748428097536</v>
+        <v>180.9748428097535</v>
       </c>
       <c r="C32" t="n">
-        <v>168.9861597674353</v>
+        <v>168.9861597674352</v>
       </c>
       <c r="D32" t="n">
-        <v>159.9674638119633</v>
+        <v>159.9674638119632</v>
       </c>
       <c r="E32" t="n">
-        <v>181.7096013818689</v>
+        <v>181.7096013818687</v>
       </c>
       <c r="F32" t="n">
-        <v>200.881417469846</v>
+        <v>200.8814174698459</v>
       </c>
       <c r="G32" t="n">
-        <v>202.3461272533885</v>
+        <v>202.3461272533884</v>
       </c>
       <c r="H32" t="n">
-        <v>115.5661795618048</v>
+        <v>115.5661795618047</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.93598234970383</v>
+        <v>10.93598234970372</v>
       </c>
       <c r="U32" t="n">
-        <v>43.17073696095014</v>
+        <v>43.17073696095002</v>
       </c>
       <c r="V32" t="n">
-        <v>124.4812200499327</v>
+        <v>124.4812200499326</v>
       </c>
       <c r="W32" t="n">
-        <v>149.7813195278896</v>
+        <v>149.7813195278895</v>
       </c>
       <c r="X32" t="n">
-        <v>169.0815777606362</v>
+        <v>169.0815777606361</v>
       </c>
       <c r="Y32" t="n">
-        <v>180.478175556835</v>
+        <v>180.4781755568349</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>7.165089697961024</v>
+        <v>7.16508969796091</v>
       </c>
       <c r="V33" t="n">
-        <v>16.98340501306402</v>
+        <v>16.9834050130639</v>
       </c>
       <c r="W33" t="n">
-        <v>29.77444876593771</v>
+        <v>29.77444876593759</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>20.82086462645823</v>
+        <v>20.82086462645812</v>
       </c>
       <c r="U34" t="n">
-        <v>75.17861149147681</v>
+        <v>75.1786114914767</v>
       </c>
       <c r="V34" t="n">
-        <v>48.99969008407626</v>
+        <v>48.99969008407615</v>
       </c>
       <c r="W34" t="n">
-        <v>74.16657615468952</v>
+        <v>74.16657615468941</v>
       </c>
       <c r="X34" t="n">
-        <v>19.81167815049264</v>
+        <v>19.81167815049253</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.68654590656033</v>
+        <v>10.68654590656021</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3266,13 @@
         <v>139.3194838123383</v>
       </c>
       <c r="C35" t="n">
-        <v>127.3308007700201</v>
+        <v>127.33080077002</v>
       </c>
       <c r="D35" t="n">
         <v>118.312104814548</v>
       </c>
       <c r="E35" t="n">
-        <v>140.0542423844536</v>
+        <v>140.0542423844535</v>
       </c>
       <c r="F35" t="n">
         <v>159.2260584724307</v>
@@ -3281,7 +3281,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H35" t="n">
-        <v>73.91082056438955</v>
+        <v>73.91082056438952</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.51537796353487</v>
+        <v>1.515377963534842</v>
       </c>
       <c r="V35" t="n">
-        <v>82.82586105251744</v>
+        <v>82.82586105251741</v>
       </c>
       <c r="W35" t="n">
         <v>108.1259605304743</v>
       </c>
       <c r="X35" t="n">
-        <v>127.426218763221</v>
+        <v>127.4262187632209</v>
       </c>
       <c r="Y35" t="n">
         <v>138.8228165594197</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>33.52325249406154</v>
+        <v>33.52325249406151</v>
       </c>
       <c r="V37" t="n">
-        <v>7.344331086660986</v>
+        <v>7.344331086660958</v>
       </c>
       <c r="W37" t="n">
-        <v>32.51121715727425</v>
+        <v>32.51121715727422</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,13 +3503,13 @@
         <v>139.3194838123383</v>
       </c>
       <c r="C38" t="n">
-        <v>127.3308007700201</v>
+        <v>127.33080077002</v>
       </c>
       <c r="D38" t="n">
         <v>118.312104814548</v>
       </c>
       <c r="E38" t="n">
-        <v>140.0542423844536</v>
+        <v>140.0542423844535</v>
       </c>
       <c r="F38" t="n">
         <v>159.2260584724307</v>
@@ -3518,7 +3518,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H38" t="n">
-        <v>73.91082056438954</v>
+        <v>73.91082056438951</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.51537796353487</v>
+        <v>1.515377963534842</v>
       </c>
       <c r="V38" t="n">
-        <v>82.82586105251744</v>
+        <v>82.82586105251741</v>
       </c>
       <c r="W38" t="n">
         <v>108.1259605304743</v>
       </c>
       <c r="X38" t="n">
-        <v>127.426218763221</v>
+        <v>127.4262187632209</v>
       </c>
       <c r="Y38" t="n">
         <v>138.8228165594197</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.52325249406154</v>
+        <v>33.52325249406151</v>
       </c>
       <c r="V40" t="n">
-        <v>7.344331086660986</v>
+        <v>7.344331086660958</v>
       </c>
       <c r="W40" t="n">
-        <v>32.51121715727425</v>
+        <v>32.51121715727422</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>139.3194838123382</v>
+        <v>139.3194838123383</v>
       </c>
       <c r="C41" t="n">
-        <v>127.33080077002</v>
+        <v>127.3308007700201</v>
       </c>
       <c r="D41" t="n">
         <v>118.312104814548</v>
       </c>
       <c r="E41" t="n">
-        <v>140.0542423844535</v>
+        <v>140.0542423844536</v>
       </c>
       <c r="F41" t="n">
         <v>159.2260584724307</v>
@@ -3755,7 +3755,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H41" t="n">
-        <v>73.91082056438947</v>
+        <v>73.91082056438955</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.515377963534775</v>
+        <v>1.51537796353486</v>
       </c>
       <c r="V41" t="n">
-        <v>82.82586105251735</v>
+        <v>82.82586105251744</v>
       </c>
       <c r="W41" t="n">
         <v>108.1259605304743</v>
       </c>
       <c r="X41" t="n">
-        <v>127.4262187632209</v>
+        <v>127.426218763221</v>
       </c>
       <c r="Y41" t="n">
-        <v>138.8228165594196</v>
+        <v>138.8228165594197</v>
       </c>
     </row>
     <row r="42">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.52325249406145</v>
+        <v>33.52325249406154</v>
       </c>
       <c r="V43" t="n">
-        <v>7.344331086660901</v>
+        <v>7.344331086660986</v>
       </c>
       <c r="W43" t="n">
-        <v>32.51121715727416</v>
+        <v>32.51121715727425</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145.8936433385547</v>
+        <v>360.9773845567577</v>
       </c>
       <c r="C11" t="n">
-        <v>145.8936433385547</v>
+        <v>360.9773845567577</v>
       </c>
       <c r="D11" t="n">
-        <v>145.8936433385547</v>
+        <v>228.0254444385361</v>
       </c>
       <c r="E11" t="n">
-        <v>116.2168615483743</v>
+        <v>228.0254444385361</v>
       </c>
       <c r="F11" t="n">
-        <v>116.2168615483743</v>
+        <v>95.07350432031458</v>
       </c>
       <c r="G11" t="n">
-        <v>116.2168615483743</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H11" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I11" t="n">
-        <v>76.89870416677087</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J11" t="n">
-        <v>188.504107315023</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="K11" t="n">
-        <v>188.504107315023</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="L11" t="n">
-        <v>289.9256632102591</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="M11" t="n">
-        <v>289.9256632102591</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="N11" t="n">
-        <v>318.8285109267659</v>
+        <v>109.3218449976535</v>
       </c>
       <c r="O11" t="n">
-        <v>318.8285109267659</v>
+        <v>220.2575006123959</v>
       </c>
       <c r="P11" t="n">
-        <v>318.8285109267659</v>
+        <v>318.828510926764</v>
       </c>
       <c r="Q11" t="n">
-        <v>407.967987830224</v>
+        <v>407.9679878302222</v>
       </c>
       <c r="R11" t="n">
-        <v>481.5587050619478</v>
+        <v>481.5587050619459</v>
       </c>
       <c r="S11" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="T11" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="U11" t="n">
-        <v>526.4896828681592</v>
+        <v>493.9293246749793</v>
       </c>
       <c r="V11" t="n">
-        <v>411.7975235749986</v>
+        <v>493.9293246749793</v>
       </c>
       <c r="W11" t="n">
-        <v>411.7975235749986</v>
+        <v>493.9293246749793</v>
       </c>
       <c r="X11" t="n">
-        <v>411.7975235749986</v>
+        <v>493.9293246749793</v>
       </c>
       <c r="Y11" t="n">
-        <v>278.8455834567766</v>
+        <v>360.9773845567577</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="C12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="D12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="E12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="F12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="G12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="K12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="L12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="M12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="N12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="O12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="P12" t="n">
-        <v>35.66705535392289</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.66705535392289</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="R12" t="n">
-        <v>35.66705535392289</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="S12" t="n">
-        <v>35.66705535392289</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="T12" t="n">
-        <v>35.66705535392289</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="U12" t="n">
-        <v>35.66705535392289</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="V12" t="n">
-        <v>29.558547613155</v>
+        <v>29.55854761315494</v>
       </c>
       <c r="W12" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="X12" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.77673573607523</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="C13" t="n">
-        <v>10.77673573607523</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="D13" t="n">
-        <v>10.77673573607523</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="E13" t="n">
-        <v>79.65630210690509</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="F13" t="n">
-        <v>79.65630210690509</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="G13" t="n">
-        <v>79.65630210690509</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H13" t="n">
-        <v>79.65630210690509</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I13" t="n">
-        <v>79.65630210690509</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J13" t="n">
-        <v>79.65630210690509</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="K13" t="n">
-        <v>79.65630210690509</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="L13" t="n">
-        <v>196.6888934136</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="M13" t="n">
-        <v>196.6888934136</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="N13" t="n">
-        <v>196.6888934136</v>
+        <v>83.26849570269832</v>
       </c>
       <c r="O13" t="n">
-        <v>196.6888934136</v>
+        <v>83.26849570269832</v>
       </c>
       <c r="P13" t="n">
-        <v>196.6888934136</v>
+        <v>83.26849570269832</v>
       </c>
       <c r="Q13" t="n">
-        <v>196.6888934136</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="R13" t="n">
-        <v>196.6888934136</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="S13" t="n">
-        <v>196.6888934136</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="T13" t="n">
-        <v>186.7041638411208</v>
+        <v>186.7041638411206</v>
       </c>
       <c r="U13" t="n">
-        <v>121.8126192534713</v>
+        <v>121.8126192534712</v>
       </c>
       <c r="V13" t="n">
-        <v>83.36442962279202</v>
+        <v>83.36442962279193</v>
       </c>
       <c r="W13" t="n">
-        <v>19.49514295108928</v>
+        <v>19.49514295108921</v>
       </c>
       <c r="X13" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.77673573607523</v>
+        <v>10.52979365736315</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>228.025444438537</v>
+        <v>382.1207417848174</v>
       </c>
       <c r="C14" t="n">
-        <v>228.025444438537</v>
+        <v>382.1207417848174</v>
       </c>
       <c r="D14" t="n">
-        <v>228.025444438537</v>
+        <v>249.1688016665959</v>
       </c>
       <c r="E14" t="n">
-        <v>228.025444438537</v>
+        <v>249.1688016665959</v>
       </c>
       <c r="F14" t="n">
-        <v>116.2168615483743</v>
+        <v>249.1688016665959</v>
       </c>
       <c r="G14" t="n">
         <v>116.2168615483743</v>
       </c>
       <c r="H14" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I14" t="n">
-        <v>76.8987041667709</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J14" t="n">
-        <v>188.504107315023</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="K14" t="n">
-        <v>288.3392602935576</v>
+        <v>110.3649466358977</v>
       </c>
       <c r="L14" t="n">
-        <v>288.3392602935576</v>
+        <v>211.7865025311339</v>
       </c>
       <c r="M14" t="n">
-        <v>288.3392602935576</v>
+        <v>211.7865025311339</v>
       </c>
       <c r="N14" t="n">
-        <v>288.3392602935576</v>
+        <v>211.7865025311339</v>
       </c>
       <c r="O14" t="n">
-        <v>288.3392602935576</v>
+        <v>322.7221581458763</v>
       </c>
       <c r="P14" t="n">
-        <v>386.9102706079257</v>
+        <v>421.2931684602444</v>
       </c>
       <c r="Q14" t="n">
-        <v>476.0497475113839</v>
+        <v>421.2931684602444</v>
       </c>
       <c r="R14" t="n">
-        <v>481.5587050619477</v>
+        <v>494.8838856919681</v>
       </c>
       <c r="S14" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="T14" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="U14" t="n">
-        <v>493.9293246749811</v>
+        <v>515.072681903039</v>
       </c>
       <c r="V14" t="n">
-        <v>493.9293246749811</v>
+        <v>515.072681903039</v>
       </c>
       <c r="W14" t="n">
-        <v>360.977384556759</v>
+        <v>515.072681903039</v>
       </c>
       <c r="X14" t="n">
-        <v>228.025444438537</v>
+        <v>515.072681903039</v>
       </c>
       <c r="Y14" t="n">
-        <v>228.025444438537</v>
+        <v>382.1207417848174</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="C15" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="D15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="E15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="F15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="G15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="K15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="L15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="M15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="N15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="O15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="P15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.66705535392283</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="R15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="S15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="T15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="U15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="V15" t="n">
-        <v>29.55854761315497</v>
+        <v>29.55854761315494</v>
       </c>
       <c r="W15" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="X15" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="C16" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="D16" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="E16" t="n">
-        <v>10.52979365736318</v>
+        <v>79.40936002819303</v>
       </c>
       <c r="F16" t="n">
-        <v>10.52979365736318</v>
+        <v>79.40936002819303</v>
       </c>
       <c r="G16" t="n">
-        <v>10.52979365736318</v>
+        <v>79.40936002819303</v>
       </c>
       <c r="H16" t="n">
-        <v>10.52979365736318</v>
+        <v>142.9218275765362</v>
       </c>
       <c r="I16" t="n">
-        <v>10.52979365736318</v>
+        <v>142.9218275765362</v>
       </c>
       <c r="J16" t="n">
-        <v>10.52979365736318</v>
+        <v>142.9218275765362</v>
       </c>
       <c r="K16" t="n">
-        <v>10.52979365736318</v>
+        <v>142.9218275765362</v>
       </c>
       <c r="L16" t="n">
-        <v>140.8359901672326</v>
+        <v>142.9218275765362</v>
       </c>
       <c r="M16" t="n">
-        <v>140.8359901672326</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="N16" t="n">
-        <v>140.8359901672326</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="O16" t="n">
-        <v>140.8359901672326</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="P16" t="n">
-        <v>140.8359901672326</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="Q16" t="n">
         <v>196.6888934135998</v>
@@ -5470,16 +5470,16 @@
         <v>121.8126192534712</v>
       </c>
       <c r="V16" t="n">
-        <v>83.36442962279196</v>
+        <v>83.36442962279193</v>
       </c>
       <c r="W16" t="n">
-        <v>19.49514295108925</v>
+        <v>19.49514295108921</v>
       </c>
       <c r="X16" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.6075332018795</v>
+        <v>323.6075332018785</v>
       </c>
       <c r="C17" t="n">
-        <v>274.9232925348601</v>
+        <v>274.9232925348592</v>
       </c>
       <c r="D17" t="n">
-        <v>235.3488457622566</v>
+        <v>235.3488457622561</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8126438685366</v>
+        <v>173.8126438685363</v>
       </c>
       <c r="F17" t="n">
-        <v>92.91097117888084</v>
+        <v>92.91097117888057</v>
       </c>
       <c r="G17" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H17" t="n">
-        <v>15.70014978319159</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I17" t="n">
-        <v>146.006346293061</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="J17" t="n">
-        <v>146.006346293061</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="K17" t="n">
-        <v>146.006346293061</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="L17" t="n">
-        <v>146.006346293061</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="M17" t="n">
-        <v>146.006346293061</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="N17" t="n">
-        <v>146.006346293061</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="O17" t="n">
-        <v>146.006346293061</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="P17" t="n">
-        <v>146.006346293061</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="Q17" t="n">
-        <v>146.006346293061</v>
+        <v>210.587390691805</v>
       </c>
       <c r="R17" t="n">
-        <v>210.5873906918069</v>
+        <v>210.587390691805</v>
       </c>
       <c r="S17" t="n">
-        <v>340.8935872016763</v>
+        <v>340.893587201674</v>
       </c>
       <c r="T17" t="n">
-        <v>449.6478385674847</v>
+        <v>449.6478385674826</v>
       </c>
       <c r="U17" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="V17" t="n">
-        <v>522.7599267642738</v>
+        <v>522.759926764272</v>
       </c>
       <c r="W17" t="n">
-        <v>493.474514622048</v>
+        <v>493.4745146220463</v>
       </c>
       <c r="X17" t="n">
-        <v>444.6938921437144</v>
+        <v>444.693892143713</v>
       </c>
       <c r="Y17" t="n">
-        <v>384.4015547197255</v>
+        <v>384.4015547197243</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="C18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="D18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="E18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="F18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="G18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="K18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="L18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="M18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="N18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="O18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="P18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="R18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="S18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="T18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="U18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="V18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="W18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="X18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="C19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="D19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="E19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="F19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="G19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="K19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="L19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="M19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="N19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="O19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="P19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="R19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="S19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="T19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="U19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="V19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="W19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="X19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.6075332018791</v>
+        <v>323.607533201879</v>
       </c>
       <c r="C20" t="n">
-        <v>274.9232925348595</v>
+        <v>274.9232925348597</v>
       </c>
       <c r="D20" t="n">
-        <v>235.3488457622564</v>
+        <v>235.3488457622566</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8126438685363</v>
+        <v>173.812643868537</v>
       </c>
       <c r="F20" t="n">
-        <v>92.91097117888079</v>
+        <v>92.9109711788808</v>
       </c>
       <c r="G20" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H20" t="n">
-        <v>15.70014978319164</v>
+        <v>15.70014978319178</v>
       </c>
       <c r="I20" t="n">
-        <v>80.28119418193745</v>
+        <v>80.28119418193609</v>
       </c>
       <c r="J20" t="n">
-        <v>80.28119418193745</v>
+        <v>80.28119418193609</v>
       </c>
       <c r="K20" t="n">
-        <v>80.28119418193745</v>
+        <v>210.587390691805</v>
       </c>
       <c r="L20" t="n">
-        <v>80.28119418193745</v>
+        <v>210.587390691805</v>
       </c>
       <c r="M20" t="n">
-        <v>80.28119418193745</v>
+        <v>210.587390691805</v>
       </c>
       <c r="N20" t="n">
-        <v>80.28119418193745</v>
+        <v>210.587390691805</v>
       </c>
       <c r="O20" t="n">
-        <v>210.5873906918069</v>
+        <v>210.587390691805</v>
       </c>
       <c r="P20" t="n">
-        <v>210.5873906918069</v>
+        <v>210.587390691805</v>
       </c>
       <c r="Q20" t="n">
-        <v>210.5873906918069</v>
+        <v>210.587390691805</v>
       </c>
       <c r="R20" t="n">
-        <v>340.8935872016763</v>
+        <v>210.587390691805</v>
       </c>
       <c r="S20" t="n">
-        <v>340.8935872016763</v>
+        <v>340.893587201674</v>
       </c>
       <c r="T20" t="n">
-        <v>449.6478385674847</v>
+        <v>449.6478385674826</v>
       </c>
       <c r="U20" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="V20" t="n">
-        <v>522.7599267642731</v>
+        <v>522.759926764272</v>
       </c>
       <c r="W20" t="n">
-        <v>493.4745146220473</v>
+        <v>493.4745146220466</v>
       </c>
       <c r="X20" t="n">
-        <v>444.6938921437139</v>
+        <v>444.6938921437136</v>
       </c>
       <c r="Y20" t="n">
-        <v>384.401554719725</v>
+        <v>384.4015547197248</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="C21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="D21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="E21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="F21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="G21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="K21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="L21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="M21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="N21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="O21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="P21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="R21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="S21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="T21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="U21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="V21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="W21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="X21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="C22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="D22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="E22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="F22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="G22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="K22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="L22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="M22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="N22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="O22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="P22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="R22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="S22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="T22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="U22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="V22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="W22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="X22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>323.6075332018797</v>
+        <v>323.6075332018785</v>
       </c>
       <c r="C23" t="n">
-        <v>274.9232925348601</v>
+        <v>274.9232925348592</v>
       </c>
       <c r="D23" t="n">
-        <v>235.3488457622569</v>
+        <v>235.3488457622561</v>
       </c>
       <c r="E23" t="n">
-        <v>173.8126438685368</v>
+        <v>173.8126438685365</v>
       </c>
       <c r="F23" t="n">
-        <v>92.91097117888079</v>
+        <v>92.91097117888057</v>
       </c>
       <c r="G23" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H23" t="n">
-        <v>10.52979365736318</v>
+        <v>15.70014978319178</v>
       </c>
       <c r="I23" t="n">
-        <v>140.8359901672326</v>
+        <v>80.28119418193609</v>
       </c>
       <c r="J23" t="n">
-        <v>271.142186677102</v>
+        <v>80.28119418193609</v>
       </c>
       <c r="K23" t="n">
-        <v>271.142186677102</v>
+        <v>80.28119418193609</v>
       </c>
       <c r="L23" t="n">
-        <v>396.1834863582898</v>
+        <v>210.587390691805</v>
       </c>
       <c r="M23" t="n">
-        <v>526.4896828681592</v>
+        <v>210.587390691805</v>
       </c>
       <c r="N23" t="n">
-        <v>526.4896828681592</v>
+        <v>210.587390691805</v>
       </c>
       <c r="O23" t="n">
-        <v>526.4896828681592</v>
+        <v>210.587390691805</v>
       </c>
       <c r="P23" t="n">
-        <v>526.4896828681592</v>
+        <v>210.587390691805</v>
       </c>
       <c r="Q23" t="n">
-        <v>526.4896828681592</v>
+        <v>210.587390691805</v>
       </c>
       <c r="R23" t="n">
-        <v>526.4896828681592</v>
+        <v>210.587390691805</v>
       </c>
       <c r="S23" t="n">
-        <v>526.4896828681592</v>
+        <v>340.893587201674</v>
       </c>
       <c r="T23" t="n">
-        <v>526.4896828681592</v>
+        <v>449.6478385674826</v>
       </c>
       <c r="U23" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="V23" t="n">
-        <v>522.7599267642737</v>
+        <v>522.7599267642715</v>
       </c>
       <c r="W23" t="n">
-        <v>493.4745146220479</v>
+        <v>493.4745146220462</v>
       </c>
       <c r="X23" t="n">
-        <v>444.6938921437144</v>
+        <v>444.6938921437131</v>
       </c>
       <c r="Y23" t="n">
-        <v>384.4015547197255</v>
+        <v>384.4015547197243</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="C24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="D24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="E24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="F24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="G24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="K24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="L24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="M24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="N24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="O24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="P24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="R24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="S24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="T24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="U24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="V24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="W24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="X24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="C25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="D25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="E25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="F25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="G25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="K25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="L25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="M25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="N25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="O25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="P25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="R25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="S25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="T25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="U25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="V25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="W25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="X25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736315</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1078.782752367163</v>
+        <v>1078.782752367161</v>
       </c>
       <c r="C26" t="n">
-        <v>908.0896616929854</v>
+        <v>908.0896616929845</v>
       </c>
       <c r="D26" t="n">
-        <v>746.5063649132244</v>
+        <v>746.5063649132237</v>
       </c>
       <c r="E26" t="n">
-        <v>562.9613130123467</v>
+        <v>562.9613130123463</v>
       </c>
       <c r="F26" t="n">
-        <v>360.0507903155326</v>
+        <v>360.0507903155324</v>
       </c>
       <c r="G26" t="n">
-        <v>155.6607627868572</v>
+        <v>155.660762786857</v>
       </c>
       <c r="H26" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I26" t="n">
-        <v>94.46953606116438</v>
+        <v>94.46953606116455</v>
       </c>
       <c r="J26" t="n">
-        <v>205.8386817097142</v>
+        <v>412.875660409669</v>
       </c>
       <c r="K26" t="n">
-        <v>205.8386817097142</v>
+        <v>894.6003553744664</v>
       </c>
       <c r="L26" t="n">
-        <v>296.4336150787435</v>
+        <v>985.1952887434959</v>
       </c>
       <c r="M26" t="n">
-        <v>399.6378002912053</v>
+        <v>1366.851330203407</v>
       </c>
       <c r="N26" t="n">
-        <v>504.9105816589977</v>
+        <v>1366.851330203407</v>
       </c>
       <c r="O26" t="n">
-        <v>986.6352766237956</v>
+        <v>1410.187318767939</v>
       </c>
       <c r="P26" t="n">
-        <v>1447.459029459579</v>
+        <v>1497.9317065561</v>
       </c>
       <c r="Q26" t="n">
-        <v>1799.021276816128</v>
+        <v>1849.493953912649</v>
       </c>
       <c r="R26" t="n">
-        <v>1946.362403898173</v>
+        <v>1912.258048618166</v>
       </c>
       <c r="S26" t="n">
-        <v>1946.362403898173</v>
+        <v>1946.362403898171</v>
       </c>
       <c r="T26" t="n">
-        <v>1935.31595708029</v>
+        <v>1935.315957080289</v>
       </c>
       <c r="U26" t="n">
-        <v>1891.709152069231</v>
+        <v>1891.709152069229</v>
       </c>
       <c r="V26" t="n">
-        <v>1765.970545958187</v>
+        <v>1765.970545958186</v>
       </c>
       <c r="W26" t="n">
-        <v>1614.676283808804</v>
+        <v>1614.676283808802</v>
       </c>
       <c r="X26" t="n">
-        <v>1443.886811323313</v>
+        <v>1443.886811323311</v>
       </c>
       <c r="Y26" t="n">
-        <v>1261.585623892166</v>
+        <v>1261.585623892165</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="F27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="J27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="K27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="M27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="N27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="O27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="P27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="R27" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="S27" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="T27" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="U27" t="n">
-        <v>86.15740341028844</v>
+        <v>86.157403410288</v>
       </c>
       <c r="V27" t="n">
-        <v>69.00244885163792</v>
+        <v>69.00244885163768</v>
       </c>
       <c r="W27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="X27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="F28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H28" t="n">
-        <v>38.92724807796346</v>
+        <v>91.61309310009997</v>
       </c>
       <c r="I28" t="n">
-        <v>38.92724807796346</v>
+        <v>163.5741183412251</v>
       </c>
       <c r="J28" t="n">
-        <v>38.92724807796346</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="K28" t="n">
-        <v>44.6182859623341</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="L28" t="n">
-        <v>44.6182859623341</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="M28" t="n">
-        <v>44.6182859623341</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="N28" t="n">
-        <v>44.6182859623341</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="O28" t="n">
-        <v>169.6950598580589</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="P28" t="n">
-        <v>291.1130727383209</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="Q28" t="n">
-        <v>291.1130727383209</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="R28" t="n">
-        <v>291.1130727383209</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="S28" t="n">
-        <v>291.1130727383209</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="T28" t="n">
-        <v>270.081896347959</v>
+        <v>270.081896347958</v>
       </c>
       <c r="U28" t="n">
-        <v>194.1439049424268</v>
+        <v>194.143904942426</v>
       </c>
       <c r="V28" t="n">
-        <v>144.649268493865</v>
+        <v>144.6492684938643</v>
       </c>
       <c r="W28" t="n">
-        <v>69.73353500427959</v>
+        <v>69.73353500427916</v>
       </c>
       <c r="X28" t="n">
-        <v>49.72173889267086</v>
+        <v>49.72173889267063</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1078.782752367162</v>
+        <v>1078.782752367161</v>
       </c>
       <c r="C29" t="n">
-        <v>908.089661692985</v>
+        <v>908.0896616929842</v>
       </c>
       <c r="D29" t="n">
-        <v>746.5063649132242</v>
+        <v>746.5063649132235</v>
       </c>
       <c r="E29" t="n">
-        <v>562.9613130123464</v>
+        <v>562.9613130123461</v>
       </c>
       <c r="F29" t="n">
-        <v>360.0507903155324</v>
+        <v>360.0507903155321</v>
       </c>
       <c r="G29" t="n">
-        <v>155.6607627868572</v>
+        <v>155.660762786857</v>
       </c>
       <c r="H29" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I29" t="n">
-        <v>94.46953606116443</v>
+        <v>94.46953606116455</v>
       </c>
       <c r="J29" t="n">
-        <v>412.8756604096688</v>
+        <v>412.875660409669</v>
       </c>
       <c r="K29" t="n">
-        <v>894.6003553744666</v>
+        <v>412.875660409669</v>
       </c>
       <c r="L29" t="n">
-        <v>985.195288743496</v>
+        <v>503.4705937786986</v>
       </c>
       <c r="M29" t="n">
-        <v>1220.33750502362</v>
+        <v>947.7925699337413</v>
       </c>
       <c r="N29" t="n">
-        <v>1325.610286391413</v>
+        <v>947.7925699337413</v>
       </c>
       <c r="O29" t="n">
-        <v>1325.610286391413</v>
+        <v>1429.517264898539</v>
       </c>
       <c r="P29" t="n">
-        <v>1413.354674179574</v>
+        <v>1497.9317065561</v>
       </c>
       <c r="Q29" t="n">
-        <v>1764.916921536123</v>
+        <v>1849.493953912649</v>
       </c>
       <c r="R29" t="n">
-        <v>1912.258048618168</v>
+        <v>1912.258048618166</v>
       </c>
       <c r="S29" t="n">
-        <v>1946.362403898173</v>
+        <v>1946.362403898171</v>
       </c>
       <c r="T29" t="n">
-        <v>1935.31595708029</v>
+        <v>1935.315957080289</v>
       </c>
       <c r="U29" t="n">
-        <v>1891.70915206923</v>
+        <v>1891.709152069228</v>
       </c>
       <c r="V29" t="n">
-        <v>1765.970545958187</v>
+        <v>1765.970545958185</v>
       </c>
       <c r="W29" t="n">
-        <v>1614.676283808803</v>
+        <v>1614.676283808802</v>
       </c>
       <c r="X29" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323311</v>
       </c>
       <c r="Y29" t="n">
-        <v>1261.585623892166</v>
+        <v>1261.585623892165</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D30" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="E30" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="F30" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="G30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="H30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="I30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="J30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="K30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="L30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="M30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="N30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="O30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="P30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="R30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="S30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="T30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="U30" t="n">
-        <v>86.15740341028832</v>
+        <v>86.157403410288</v>
       </c>
       <c r="V30" t="n">
-        <v>69.00244885163787</v>
+        <v>69.00244885163768</v>
       </c>
       <c r="W30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="X30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="Y30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.06160993035735</v>
+        <v>66.06160993035746</v>
       </c>
       <c r="C31" t="n">
-        <v>66.06160993035735</v>
+        <v>66.06160993035746</v>
       </c>
       <c r="D31" t="n">
-        <v>66.06160993035735</v>
+        <v>123.0728261322024</v>
       </c>
       <c r="E31" t="n">
-        <v>66.06160993035735</v>
+        <v>181.1257699768257</v>
       </c>
       <c r="F31" t="n">
-        <v>66.06160993035735</v>
+        <v>238.7164587365446</v>
       </c>
       <c r="G31" t="n">
-        <v>66.06160993035735</v>
+        <v>238.7164587365446</v>
       </c>
       <c r="H31" t="n">
-        <v>66.06160993035735</v>
+        <v>238.7164587365446</v>
       </c>
       <c r="I31" t="n">
-        <v>138.0226351714823</v>
+        <v>238.7164587365446</v>
       </c>
       <c r="J31" t="n">
-        <v>138.0226351714823</v>
+        <v>238.7164587365446</v>
       </c>
       <c r="K31" t="n">
-        <v>265.4593674189981</v>
+        <v>238.7164587365446</v>
       </c>
       <c r="L31" t="n">
-        <v>265.4593674189981</v>
+        <v>238.7164587365446</v>
       </c>
       <c r="M31" t="n">
-        <v>265.4593674189981</v>
+        <v>238.7164587365446</v>
       </c>
       <c r="N31" t="n">
-        <v>265.4593674189981</v>
+        <v>238.7164587365446</v>
       </c>
       <c r="O31" t="n">
-        <v>265.4593674189981</v>
+        <v>238.7164587365446</v>
       </c>
       <c r="P31" t="n">
-        <v>265.4593674189981</v>
+        <v>238.7164587365446</v>
       </c>
       <c r="Q31" t="n">
-        <v>291.1130727383205</v>
+        <v>238.7164587365446</v>
       </c>
       <c r="R31" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="S31" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="T31" t="n">
-        <v>270.0818963479587</v>
+        <v>270.081896347958</v>
       </c>
       <c r="U31" t="n">
-        <v>194.1439049424266</v>
+        <v>194.143904942426</v>
       </c>
       <c r="V31" t="n">
-        <v>144.6492684938648</v>
+        <v>144.6492684938643</v>
       </c>
       <c r="W31" t="n">
-        <v>69.73353500427947</v>
+        <v>69.73353500427916</v>
       </c>
       <c r="X31" t="n">
-        <v>49.72173889267081</v>
+        <v>49.72173889267063</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1078.782752367162</v>
+        <v>1078.782752367161</v>
       </c>
       <c r="C32" t="n">
-        <v>908.0896616929851</v>
+        <v>908.0896616929842</v>
       </c>
       <c r="D32" t="n">
-        <v>746.5063649132242</v>
+        <v>746.5063649132235</v>
       </c>
       <c r="E32" t="n">
-        <v>562.9613130123465</v>
+        <v>562.961313012346</v>
       </c>
       <c r="F32" t="n">
-        <v>360.0507903155324</v>
+        <v>360.0507903155319</v>
       </c>
       <c r="G32" t="n">
-        <v>155.6607627868572</v>
+        <v>155.6607627868571</v>
       </c>
       <c r="H32" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I32" t="n">
-        <v>94.46953606116438</v>
+        <v>94.46953606116446</v>
       </c>
       <c r="J32" t="n">
-        <v>412.8756604096686</v>
+        <v>195.24831668321</v>
       </c>
       <c r="K32" t="n">
-        <v>894.6003553744665</v>
+        <v>284.2568471355379</v>
       </c>
       <c r="L32" t="n">
-        <v>985.1952887434959</v>
+        <v>290.7518812033612</v>
       </c>
       <c r="M32" t="n">
-        <v>1207.972859723247</v>
+        <v>393.9560664158231</v>
       </c>
       <c r="N32" t="n">
-        <v>1313.245641091039</v>
+        <v>741.5192953264605</v>
       </c>
       <c r="O32" t="n">
-        <v>1413.354674179574</v>
+        <v>1223.243990291258</v>
       </c>
       <c r="P32" t="n">
-        <v>1413.354674179574</v>
+        <v>1704.968685256055</v>
       </c>
       <c r="Q32" t="n">
-        <v>1764.916921536123</v>
+        <v>1849.493953912649</v>
       </c>
       <c r="R32" t="n">
-        <v>1912.258048618168</v>
+        <v>1912.258048618166</v>
       </c>
       <c r="S32" t="n">
-        <v>1946.362403898173</v>
+        <v>1946.362403898171</v>
       </c>
       <c r="T32" t="n">
-        <v>1935.31595708029</v>
+        <v>1935.315957080289</v>
       </c>
       <c r="U32" t="n">
-        <v>1891.70915206923</v>
+        <v>1891.709152069228</v>
       </c>
       <c r="V32" t="n">
-        <v>1765.970545958187</v>
+        <v>1765.970545958186</v>
       </c>
       <c r="W32" t="n">
-        <v>1614.676283808803</v>
+        <v>1614.676283808802</v>
       </c>
       <c r="X32" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323311</v>
       </c>
       <c r="Y32" t="n">
-        <v>1261.585623892166</v>
+        <v>1261.585623892165</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="F33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G33" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="H33" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="I33" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="J33" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="K33" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="L33" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="M33" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="N33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="O33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="P33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="R33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="S33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="T33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="U33" t="n">
-        <v>86.15740341028844</v>
+        <v>86.15740341028817</v>
       </c>
       <c r="V33" t="n">
-        <v>69.00244885163792</v>
+        <v>69.00244885163777</v>
       </c>
       <c r="W33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="X33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="Y33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C34" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D34" t="n">
-        <v>38.92724807796346</v>
+        <v>95.93846427980829</v>
       </c>
       <c r="E34" t="n">
-        <v>38.92724807796346</v>
+        <v>95.93846427980829</v>
       </c>
       <c r="F34" t="n">
-        <v>96.51793683768211</v>
+        <v>95.93846427980829</v>
       </c>
       <c r="G34" t="n">
-        <v>96.51793683768211</v>
+        <v>95.93846427980829</v>
       </c>
       <c r="H34" t="n">
-        <v>96.51793683768211</v>
+        <v>148.6243093019447</v>
       </c>
       <c r="I34" t="n">
-        <v>96.51793683768211</v>
+        <v>148.6243093019447</v>
       </c>
       <c r="J34" t="n">
-        <v>99.84561904513106</v>
+        <v>148.6243093019447</v>
       </c>
       <c r="K34" t="n">
-        <v>99.84561904513106</v>
+        <v>148.6243093019447</v>
       </c>
       <c r="L34" t="n">
-        <v>140.5025120547914</v>
+        <v>148.6243093019447</v>
       </c>
       <c r="M34" t="n">
-        <v>291.1130727383209</v>
+        <v>148.6243093019447</v>
       </c>
       <c r="N34" t="n">
-        <v>291.1130727383209</v>
+        <v>148.6243093019447</v>
       </c>
       <c r="O34" t="n">
-        <v>291.1130727383209</v>
+        <v>148.6243093019447</v>
       </c>
       <c r="P34" t="n">
-        <v>291.1130727383209</v>
+        <v>148.6243093019447</v>
       </c>
       <c r="Q34" t="n">
-        <v>291.1130727383209</v>
+        <v>221.2664822235802</v>
       </c>
       <c r="R34" t="n">
-        <v>291.1130727383209</v>
+        <v>291.1130727383202</v>
       </c>
       <c r="S34" t="n">
-        <v>291.1130727383209</v>
+        <v>291.1130727383202</v>
       </c>
       <c r="T34" t="n">
-        <v>270.081896347959</v>
+        <v>270.0818963479584</v>
       </c>
       <c r="U34" t="n">
-        <v>194.1439049424268</v>
+        <v>194.1439049424264</v>
       </c>
       <c r="V34" t="n">
-        <v>144.649268493865</v>
+        <v>144.6492684938646</v>
       </c>
       <c r="W34" t="n">
-        <v>69.73353500427959</v>
+        <v>69.73353500427933</v>
       </c>
       <c r="X34" t="n">
-        <v>49.72173889267086</v>
+        <v>49.72173889267071</v>
       </c>
       <c r="Y34" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>815.7962375133419</v>
+        <v>815.7962375133421</v>
       </c>
       <c r="C35" t="n">
-        <v>687.1792670385742</v>
+        <v>687.1792670385744</v>
       </c>
       <c r="D35" t="n">
-        <v>567.6720904582226</v>
+        <v>567.6720904582229</v>
       </c>
       <c r="E35" t="n">
-        <v>426.2031587567542</v>
+        <v>426.2031587567546</v>
       </c>
       <c r="F35" t="n">
-        <v>265.3687562593495</v>
+        <v>265.3687562593499</v>
       </c>
       <c r="G35" t="n">
         <v>103.0548489300847</v>
@@ -6932,28 +6932,28 @@
         <v>28.39745442060028</v>
       </c>
       <c r="I35" t="n">
-        <v>125.1785478112423</v>
+        <v>125.1785478112424</v>
       </c>
       <c r="J35" t="n">
-        <v>267.1961338407288</v>
+        <v>267.1961338407289</v>
       </c>
       <c r="K35" t="n">
-        <v>397.4434697004975</v>
+        <v>397.4434697004978</v>
       </c>
       <c r="L35" t="n">
-        <v>529.277208476968</v>
+        <v>529.2772084769683</v>
       </c>
       <c r="M35" t="n">
-        <v>673.7201990968708</v>
+        <v>673.7201990968713</v>
       </c>
       <c r="N35" t="n">
-        <v>820.2317858721043</v>
+        <v>820.2317858721049</v>
       </c>
       <c r="O35" t="n">
-        <v>961.579624368081</v>
+        <v>961.5796243680816</v>
       </c>
       <c r="P35" t="n">
-        <v>1090.562817563683</v>
+        <v>1090.562817563684</v>
       </c>
       <c r="Q35" t="n">
         <v>1210.114477348376</v>
@@ -6980,7 +6980,7 @@
         <v>1096.748056070673</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.522988838936</v>
+        <v>956.5229888389362</v>
       </c>
     </row>
     <row r="36">
@@ -7096,40 +7096,40 @@
         <v>28.39745442060028</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="R37" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="S37" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="T37" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="U37" t="n">
-        <v>68.6555839599288</v>
+        <v>68.65558395992875</v>
       </c>
       <c r="V37" t="n">
-        <v>61.23706771077629</v>
+        <v>61.23706771077626</v>
       </c>
       <c r="W37" t="n">
         <v>28.39745442060028</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>815.7962375133429</v>
+        <v>815.7962375133428</v>
       </c>
       <c r="C38" t="n">
-        <v>687.1792670385752</v>
+        <v>687.1792670385751</v>
       </c>
       <c r="D38" t="n">
         <v>567.6720904582236</v>
@@ -7166,31 +7166,31 @@
         <v>103.0548489300847</v>
       </c>
       <c r="H38" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I38" t="n">
-        <v>125.1785478112423</v>
+        <v>125.1785478112426</v>
       </c>
       <c r="J38" t="n">
-        <v>267.1961338407288</v>
+        <v>267.1961338407291</v>
       </c>
       <c r="K38" t="n">
-        <v>397.4434697004977</v>
+        <v>397.443469700498</v>
       </c>
       <c r="L38" t="n">
-        <v>529.2772084769681</v>
+        <v>529.2772084769684</v>
       </c>
       <c r="M38" t="n">
-        <v>673.720199096872</v>
+        <v>673.7201990968714</v>
       </c>
       <c r="N38" t="n">
-        <v>820.2317858721054</v>
+        <v>820.2317858721049</v>
       </c>
       <c r="O38" t="n">
-        <v>961.5796243680821</v>
+        <v>961.5796243680815</v>
       </c>
       <c r="P38" t="n">
-        <v>1090.562817563685</v>
+        <v>1090.562817563684</v>
       </c>
       <c r="Q38" t="n">
         <v>1210.114477348377</v>
@@ -7199,7 +7199,7 @@
         <v>1314.117377461335</v>
       </c>
       <c r="S38" t="n">
-        <v>1389.460538148781</v>
+        <v>1389.46053814878</v>
       </c>
       <c r="T38" t="n">
         <v>1419.872721030015</v>
@@ -7217,7 +7217,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.5229888389372</v>
+        <v>956.5229888389371</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="R39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="S39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="T39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="U39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="V39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="W39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C40" t="n">
-        <v>102.5174551660516</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D40" t="n">
-        <v>102.5174551660516</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E40" t="n">
-        <v>102.5174551660516</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F40" t="n">
-        <v>102.5174551660516</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="H40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="I40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="J40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="L40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="M40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="N40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="O40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="P40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="R40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="S40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="T40" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660515</v>
       </c>
       <c r="U40" t="n">
-        <v>68.6555839599288</v>
+        <v>68.65558395992876</v>
       </c>
       <c r="V40" t="n">
-        <v>61.23706771077629</v>
+        <v>61.23706771077627</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>815.7962375133422</v>
+        <v>815.7962375133426</v>
       </c>
       <c r="C41" t="n">
         <v>687.1792670385746</v>
       </c>
       <c r="D41" t="n">
-        <v>567.6720904582231</v>
+        <v>567.672090458223</v>
       </c>
       <c r="E41" t="n">
-        <v>426.2031587567549</v>
+        <v>426.2031587567546</v>
       </c>
       <c r="F41" t="n">
         <v>265.3687562593502</v>
       </c>
       <c r="G41" t="n">
-        <v>103.0548489300846</v>
+        <v>103.0548489300847</v>
       </c>
       <c r="H41" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I41" t="n">
-        <v>125.1785478112424</v>
+        <v>125.1785478112423</v>
       </c>
       <c r="J41" t="n">
-        <v>267.196133840729</v>
+        <v>267.1961338407294</v>
       </c>
       <c r="K41" t="n">
-        <v>397.4434697004979</v>
+        <v>397.4434697004983</v>
       </c>
       <c r="L41" t="n">
-        <v>529.2772084769684</v>
+        <v>529.2772084769688</v>
       </c>
       <c r="M41" t="n">
-        <v>673.7201990968701</v>
+        <v>673.7201990968717</v>
       </c>
       <c r="N41" t="n">
-        <v>820.2317858721037</v>
+        <v>820.2317858721052</v>
       </c>
       <c r="O41" t="n">
-        <v>961.5796243680804</v>
+        <v>961.5796243680819</v>
       </c>
       <c r="P41" t="n">
-        <v>1090.562817563683</v>
+        <v>1090.562817563684</v>
       </c>
       <c r="Q41" t="n">
-        <v>1210.114477348376</v>
+        <v>1210.114477348377</v>
       </c>
       <c r="R41" t="n">
-        <v>1314.117377461334</v>
+        <v>1314.117377461335</v>
       </c>
       <c r="S41" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148781</v>
       </c>
       <c r="T41" t="n">
-        <v>1419.872721030014</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="U41" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218364</v>
       </c>
       <c r="V41" t="n">
-        <v>1334.679550306729</v>
+        <v>1334.67955030673</v>
       </c>
       <c r="W41" t="n">
-        <v>1225.461408356755</v>
+        <v>1225.461408356756</v>
       </c>
       <c r="X41" t="n">
         <v>1096.748056070674</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.5229888389365</v>
+        <v>956.5229888389368</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="R42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="S42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="T42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="U42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="V42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="W42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="I43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="J43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="K43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="L43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="M43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="N43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="O43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="P43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="R43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="S43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="T43" t="n">
-        <v>102.5174551660513</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="U43" t="n">
-        <v>68.65558395992863</v>
+        <v>68.65558395992882</v>
       </c>
       <c r="V43" t="n">
-        <v>61.2370677107762</v>
+        <v>61.2370677107763</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>815.7962375133417</v>
+        <v>815.7962375133426</v>
       </c>
       <c r="C44" t="n">
-        <v>687.1792670385739</v>
+        <v>687.1792670385748</v>
       </c>
       <c r="D44" t="n">
-        <v>567.6720904582228</v>
+        <v>567.6720904582237</v>
       </c>
       <c r="E44" t="n">
-        <v>426.2031587567543</v>
+        <v>426.2031587567552</v>
       </c>
       <c r="F44" t="n">
-        <v>265.3687562593495</v>
+        <v>265.3687562593504</v>
       </c>
       <c r="G44" t="n">
         <v>103.0548489300847</v>
       </c>
       <c r="H44" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I44" t="n">
         <v>125.1785478112423</v>
       </c>
       <c r="J44" t="n">
-        <v>267.1961338407288</v>
+        <v>267.1961338407289</v>
       </c>
       <c r="K44" t="n">
-        <v>397.4434697004977</v>
+        <v>397.4434697004978</v>
       </c>
       <c r="L44" t="n">
-        <v>529.2772084769681</v>
+        <v>529.2772084769682</v>
       </c>
       <c r="M44" t="n">
-        <v>673.7201990968709</v>
+        <v>673.7201990968717</v>
       </c>
       <c r="N44" t="n">
-        <v>820.2317858721044</v>
+        <v>820.2317858721052</v>
       </c>
       <c r="O44" t="n">
-        <v>961.579624368081</v>
+        <v>961.5796243680819</v>
       </c>
       <c r="P44" t="n">
-        <v>1090.562817563683</v>
+        <v>1090.562817563684</v>
       </c>
       <c r="Q44" t="n">
-        <v>1210.114477348376</v>
+        <v>1210.114477348377</v>
       </c>
       <c r="R44" t="n">
-        <v>1314.117377461334</v>
+        <v>1314.117377461335</v>
       </c>
       <c r="S44" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148781</v>
       </c>
       <c r="T44" t="n">
-        <v>1419.872721030014</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="U44" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218364</v>
       </c>
       <c r="V44" t="n">
-        <v>1334.679550306729</v>
+        <v>1334.67955030673</v>
       </c>
       <c r="W44" t="n">
-        <v>1225.461408356755</v>
+        <v>1225.461408356756</v>
       </c>
       <c r="X44" t="n">
-        <v>1096.748056070673</v>
+        <v>1096.748056070674</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.5229888389359</v>
+        <v>956.5229888389368</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="R45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="S45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="T45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="U45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="V45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="W45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="R46" t="n">
-        <v>81.89130573880411</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="S46" t="n">
-        <v>81.89130573880411</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="T46" t="n">
         <v>102.5174551660516</v>
       </c>
       <c r="U46" t="n">
-        <v>68.6555839599288</v>
+        <v>68.65558395992882</v>
       </c>
       <c r="V46" t="n">
-        <v>61.23706771077629</v>
+        <v>61.2370677107763</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>281.2645012600492</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O26" t="n">
-        <v>418.8251815614614</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>376.8478434824467</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10030,25 +10030,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>8.023087198899049</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L28" t="n">
-        <v>78.34590850546635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>396.6829944570404</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>133.2707384521845</v>
+        <v>344.5634251945261</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O29" t="n">
-        <v>108.0080258701201</v>
+        <v>385.4703655315774</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10191,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>71.5135051140094</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>58.14149588130889</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.96206476056946</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>41.51206923517107</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>19.82713412665818</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>60.98136935834783</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.73346793160957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10270,22 +10270,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>120.7811977447362</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>244.7378258008533</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>385.4703655315775</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>397.9599062390263</v>
       </c>
       <c r="Q32" t="n">
         <v>276.0094878578761</v>
       </c>
       <c r="R32" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.96206476056946</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>96.52986688537284</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.73346793160957</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10507,13 +10507,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L34" t="n">
-        <v>119.4134772020929</v>
+        <v>78.34590850546635</v>
       </c>
       <c r="M34" t="n">
-        <v>232.0625591822793</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>71.58137972518441</v>
@@ -10522,7 +10522,7 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P34" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-7.815970093361102e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.41643974300999</v>
+        <v>170.0388604600498</v>
       </c>
       <c r="C11" t="n">
         <v>158.0501774177315</v>
       </c>
       <c r="D11" t="n">
-        <v>149.0314814622595</v>
+        <v>17.40906074522013</v>
       </c>
       <c r="E11" t="n">
-        <v>141.3936050598865</v>
+        <v>170.773619032165</v>
       </c>
       <c r="F11" t="n">
-        <v>189.9454351201422</v>
+        <v>58.32301440310283</v>
       </c>
       <c r="G11" t="n">
-        <v>191.4101449036847</v>
+        <v>107.7118713473628</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>104.630197212101</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.23475461124634</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>113.5452377002289</v>
       </c>
       <c r="W11" t="n">
         <v>138.8453371781858</v>
@@ -23324,7 +23324,7 @@
         <v>158.1455954109324</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.91977249009139</v>
+        <v>37.91977249009182</v>
       </c>
     </row>
     <row r="12">
@@ -23498,16 +23498,16 @@
         <v>158.0501774177315</v>
       </c>
       <c r="D14" t="n">
-        <v>149.0314814622595</v>
+        <v>17.40906074522013</v>
       </c>
       <c r="E14" t="n">
         <v>170.773619032165</v>
       </c>
       <c r="F14" t="n">
-        <v>79.25493805888112</v>
+        <v>189.9454351201422</v>
       </c>
       <c r="G14" t="n">
-        <v>191.4101449036847</v>
+        <v>59.78772418664535</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>20.93192365577909</v>
       </c>
       <c r="V14" t="n">
         <v>113.5452377002289</v>
       </c>
       <c r="W14" t="n">
-        <v>7.222916461145985</v>
+        <v>138.8453371781858</v>
       </c>
       <c r="X14" t="n">
-        <v>26.5231746938926</v>
+        <v>158.1455954109324</v>
       </c>
       <c r="Y14" t="n">
-        <v>169.5421932071312</v>
+        <v>37.91977249009182</v>
       </c>
     </row>
     <row r="15">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.131628207280301e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>970465.8572736623</v>
+        <v>970465.8572736621</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>970465.8572736623</v>
+        <v>970465.8572736621</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1183931.774598108</v>
+        <v>1183931.774598107</v>
       </c>
     </row>
     <row r="11">
@@ -26314,7 +26314,7 @@
         <v>229762.9894521913</v>
       </c>
       <c r="C2" t="n">
-        <v>229762.9894521913</v>
+        <v>229762.9894521912</v>
       </c>
       <c r="D2" t="n">
         <v>229762.9894521913</v>
@@ -26326,7 +26326,7 @@
         <v>200786.0394359301</v>
       </c>
       <c r="G2" t="n">
-        <v>230287.2181482544</v>
+        <v>230287.2181482546</v>
       </c>
       <c r="H2" t="n">
         <v>230287.2181482545</v>
@@ -26335,10 +26335,10 @@
         <v>230287.2181482545</v>
       </c>
       <c r="J2" t="n">
-        <v>230287.2181482546</v>
+        <v>230287.2181482545</v>
       </c>
       <c r="K2" t="n">
-        <v>230287.2181482546</v>
+        <v>230287.2181482545</v>
       </c>
       <c r="L2" t="n">
         <v>230287.2181482546</v>
@@ -26347,7 +26347,7 @@
         <v>230287.2181482546</v>
       </c>
       <c r="N2" t="n">
-        <v>230287.2181482547</v>
+        <v>230287.2181482545</v>
       </c>
       <c r="O2" t="n">
         <v>230287.2181482546</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>308990.6514115119</v>
+        <v>308990.6514115118</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>87882.22332590577</v>
+        <v>87882.22332590594</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>172295.6802798567</v>
       </c>
       <c r="K3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87882.22332590571</v>
+        <v>87882.22332590587</v>
       </c>
       <c r="M3" t="n">
-        <v>33324.28719793227</v>
+        <v>33324.28719793215</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>79420.3857245625</v>
+        <v>79420.38572456247</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>437137.1652114342</v>
       </c>
       <c r="E4" t="n">
-        <v>341966.2726892944</v>
+        <v>341966.2726892943</v>
       </c>
       <c r="F4" t="n">
         <v>341966.2726892944</v>
@@ -26451,7 +26451,7 @@
         <v>398950.3342181894</v>
       </c>
       <c r="N4" t="n">
-        <v>398950.3342181895</v>
+        <v>398950.3342181894</v>
       </c>
       <c r="O4" t="n">
         <v>398950.3342181895</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29044.09759212586</v>
+        <v>29044.09759212583</v>
       </c>
       <c r="F5" t="n">
-        <v>29044.09759212586</v>
+        <v>29044.09759212583</v>
       </c>
       <c r="G5" t="n">
-        <v>38279.31088310783</v>
+        <v>38279.31088310782</v>
       </c>
       <c r="H5" t="n">
-        <v>38279.31088310783</v>
+        <v>38279.31088310782</v>
       </c>
       <c r="I5" t="n">
-        <v>38279.31088310783</v>
+        <v>38279.31088310782</v>
       </c>
       <c r="J5" t="n">
-        <v>49706.78585162482</v>
+        <v>49706.78585162481</v>
       </c>
       <c r="K5" t="n">
-        <v>49706.78585162482</v>
+        <v>49706.78585162481</v>
       </c>
       <c r="L5" t="n">
-        <v>49706.78585162482</v>
+        <v>49706.7858516248</v>
       </c>
       <c r="M5" t="n">
-        <v>45206.0670475825</v>
+        <v>45206.06704758251</v>
       </c>
       <c r="N5" t="n">
-        <v>45206.0670475825</v>
+        <v>45206.06704758252</v>
       </c>
       <c r="O5" t="n">
         <v>45206.06704758252</v>
       </c>
       <c r="P5" t="n">
-        <v>45206.0670475825</v>
+        <v>45206.06704758252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-241001.7757592429</v>
+        <v>-241006.1443317101</v>
       </c>
       <c r="C6" t="n">
-        <v>-241001.7757592429</v>
+        <v>-241006.1443317102</v>
       </c>
       <c r="D6" t="n">
-        <v>-241001.7757592429</v>
+        <v>-241006.1443317101</v>
       </c>
       <c r="E6" t="n">
-        <v>-479214.9822570021</v>
+        <v>-479460.8254129379</v>
       </c>
       <c r="F6" t="n">
-        <v>-170224.3308454902</v>
+        <v>-170470.1740014262</v>
       </c>
       <c r="G6" t="n">
-        <v>-293896.3887113819</v>
+        <v>-293896.388711382</v>
       </c>
       <c r="H6" t="n">
-        <v>-206014.1653854762</v>
+        <v>-206014.1653854761</v>
       </c>
       <c r="I6" t="n">
         <v>-206014.1653854761</v>
       </c>
       <c r="J6" t="n">
-        <v>-397434.6890732605</v>
+        <v>-397434.6890732606</v>
       </c>
       <c r="K6" t="n">
         <v>-225139.0087934039</v>
@@ -26552,13 +26552,13 @@
         <v>-313021.2321193096</v>
       </c>
       <c r="M6" t="n">
-        <v>-247193.4703154496</v>
+        <v>-247193.4703154494</v>
       </c>
       <c r="N6" t="n">
-        <v>-213869.1831175173</v>
+        <v>-213869.1831175174</v>
       </c>
       <c r="O6" t="n">
-        <v>-293289.56884208</v>
+        <v>-293289.5688420799</v>
       </c>
       <c r="P6" t="n">
         <v>-213869.1831175173</v>
@@ -26698,31 +26698,31 @@
         <v>220.0642436627892</v>
       </c>
       <c r="G2" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="H2" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="I2" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="J2" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K2" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="L2" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="M2" t="n">
+        <v>250.7836203105007</v>
+      </c>
+      <c r="N2" t="n">
+        <v>250.7836203105007</v>
+      </c>
+      <c r="O2" t="n">
         <v>250.7836203105006</v>
-      </c>
-      <c r="N2" t="n">
-        <v>250.7836203105006</v>
-      </c>
-      <c r="O2" t="n">
-        <v>250.7836203105007</v>
       </c>
       <c r="P2" t="n">
         <v>250.7836203105006</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="F4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="G4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="H4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="I4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="J4" t="n">
-        <v>486.5906009745433</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="K4" t="n">
-        <v>486.5906009745433</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="L4" t="n">
-        <v>486.5906009745433</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="M4" t="n">
         <v>354.9681802575035</v>
       </c>
       <c r="N4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575037</v>
       </c>
       <c r="O4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575037</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575037</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>220.0642436627892</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>109.8527791573822</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>99.27548215570306</v>
+        <v>99.27548215570312</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>109.8527791573821</v>
+        <v>109.8527791573823</v>
       </c>
       <c r="M2" t="n">
-        <v>41.65535899741533</v>
+        <v>41.65535899741519</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570312</v>
+        <v>99.27548215570309</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>220.0642436627892</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>109.8527791573822</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570306</v>
+        <v>99.27548215570312</v>
       </c>
       <c r="P2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28108,28 +28108,28 @@
         <v>220.0642436627892</v>
       </c>
       <c r="I11" t="n">
-        <v>220.0642436627892</v>
+        <v>153.0249401179329</v>
       </c>
       <c r="J11" t="n">
-        <v>220.0642436627892</v>
+        <v>107.3315132100092</v>
       </c>
       <c r="K11" t="n">
         <v>119.2206547955825</v>
       </c>
       <c r="L11" t="n">
-        <v>220.0642436627892</v>
+        <v>117.6182276069951</v>
       </c>
       <c r="M11" t="n">
         <v>104.881609583326</v>
       </c>
       <c r="N11" t="n">
-        <v>131.9869141905747</v>
+        <v>202.5820693661136</v>
       </c>
       <c r="O11" t="n">
-        <v>108.0080258701201</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="P11" t="n">
-        <v>120.4975665775689</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="Q11" t="n">
         <v>220.0642436627892</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>183.2164217843167</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
@@ -28193,25 +28193,25 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K12" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400939</v>
       </c>
       <c r="L12" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130888</v>
       </c>
       <c r="M12" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056944</v>
       </c>
       <c r="N12" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517105</v>
       </c>
       <c r="O12" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839743</v>
       </c>
       <c r="P12" t="n">
         <v>60.98136935834783</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.73346793160957</v>
+        <v>107.1246413624779</v>
       </c>
       <c r="R12" t="n">
         <v>102.7991627330203</v>
@@ -28254,7 +28254,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>220.0642436627892</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
@@ -28275,22 +28275,22 @@
         <v>80.40428934589778</v>
       </c>
       <c r="L13" t="n">
-        <v>196.5606471990976</v>
+        <v>78.34590850546635</v>
       </c>
       <c r="M13" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N13" t="n">
-        <v>71.58137972518441</v>
+        <v>145.0548161346139</v>
       </c>
       <c r="O13" t="n">
         <v>82.78808566083805</v>
       </c>
       <c r="P13" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.4981853689493</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="R13" t="n">
         <v>138.576149682035</v>
@@ -28314,7 +28314,7 @@
         <v>220.0642436627892</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.0642436627892</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -28345,37 +28345,37 @@
         <v>220.0642436627892</v>
       </c>
       <c r="I14" t="n">
-        <v>220.0642436627892</v>
+        <v>153.0249401179329</v>
       </c>
       <c r="J14" t="n">
-        <v>220.0642436627892</v>
+        <v>107.3315132100092</v>
       </c>
       <c r="K14" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="L14" t="n">
-        <v>117.6182276069951</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="M14" t="n">
         <v>104.881609583326</v>
       </c>
       <c r="N14" t="n">
-        <v>102.7921185173355</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O14" t="n">
-        <v>108.0080258701201</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="P14" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="Q14" t="n">
+        <v>130.0243680027304</v>
+      </c>
+      <c r="R14" t="n">
         <v>220.0642436627892</v>
       </c>
-      <c r="R14" t="n">
-        <v>151.2947894393953</v>
-      </c>
       <c r="S14" t="n">
-        <v>220.0642436627892</v>
+        <v>206.6044652486253</v>
       </c>
       <c r="T14" t="n">
         <v>220.0642436627892</v>
@@ -28409,7 +28409,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>162.8414240705584</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -28430,19 +28430,19 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K15" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400939</v>
       </c>
       <c r="L15" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130888</v>
       </c>
       <c r="M15" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056944</v>
       </c>
       <c r="N15" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517105</v>
       </c>
       <c r="O15" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839743</v>
       </c>
       <c r="P15" t="n">
         <v>60.98136935834783</v>
@@ -28451,7 +28451,7 @@
         <v>81.73346793160957</v>
       </c>
       <c r="R15" t="n">
-        <v>102.7991627330203</v>
+        <v>128.1903361638886</v>
       </c>
       <c r="S15" t="n">
         <v>146.6148367064899</v>
@@ -28491,7 +28491,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="F16" t="n">
         <v>150.9558484244806</v>
@@ -28500,7 +28500,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H16" t="n">
-        <v>155.9102360382001</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="I16" t="n">
         <v>136.4403570291208</v>
@@ -28512,10 +28512,10 @@
         <v>80.40428934589778</v>
       </c>
       <c r="L16" t="n">
-        <v>209.9683292225062</v>
+        <v>78.34590850546635</v>
       </c>
       <c r="M16" t="n">
-        <v>79.9306797039667</v>
+        <v>134.2408472161522</v>
       </c>
       <c r="N16" t="n">
         <v>71.58137972518441</v>
@@ -28524,10 +28524,10 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P16" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q16" t="n">
-        <v>161.9152593551788</v>
+        <v>105.4981853689493</v>
       </c>
       <c r="R16" t="n">
         <v>138.576149682035</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="C17" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="D17" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="E17" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="F17" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="G17" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="H17" t="n">
-        <v>329.9170228201714</v>
+        <v>324.6944408748902</v>
       </c>
       <c r="I17" t="n">
-        <v>284.6473608349727</v>
+        <v>284.6473608349722</v>
       </c>
       <c r="J17" t="n">
         <v>107.3315132100092</v>
@@ -28597,7 +28597,7 @@
         <v>104.881609583326</v>
       </c>
       <c r="N17" t="n">
-        <v>102.7921185173355</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O17" t="n">
         <v>108.0080258701201</v>
@@ -28606,31 +28606,31 @@
         <v>120.4975665775689</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.0243680027304</v>
+        <v>200.4803281285617</v>
       </c>
       <c r="R17" t="n">
-        <v>210.9635640335186</v>
+        <v>145.7301858529672</v>
       </c>
       <c r="S17" t="n">
-        <v>306.3018383129487</v>
+        <v>306.3018383129482</v>
       </c>
       <c r="T17" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="U17" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="V17" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="W17" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="X17" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="Y17" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
     </row>
     <row r="18">
@@ -28667,19 +28667,19 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K18" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400939</v>
       </c>
       <c r="L18" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130888</v>
       </c>
       <c r="M18" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056944</v>
       </c>
       <c r="N18" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517105</v>
       </c>
       <c r="O18" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839743</v>
       </c>
       <c r="P18" t="n">
         <v>60.98136935834783</v>
@@ -28752,7 +28752,7 @@
         <v>78.34590850546635</v>
       </c>
       <c r="M19" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N19" t="n">
         <v>71.58137972518441</v>
@@ -28761,7 +28761,7 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P19" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q19" t="n">
         <v>105.4981853689493</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="C20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="D20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="E20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="F20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="G20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="H20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="I20" t="n">
-        <v>218.2583182984842</v>
+        <v>218.2583182984827</v>
       </c>
       <c r="J20" t="n">
         <v>107.3315132100092</v>
       </c>
       <c r="K20" t="n">
-        <v>119.2206547955825</v>
+        <v>250.8430755126219</v>
       </c>
       <c r="L20" t="n">
         <v>117.6182276069951</v>
@@ -28834,10 +28834,10 @@
         <v>104.881609583326</v>
       </c>
       <c r="N20" t="n">
-        <v>102.7921185173355</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O20" t="n">
-        <v>239.63044658716</v>
+        <v>108.0080258701201</v>
       </c>
       <c r="P20" t="n">
         <v>120.4975665775689</v>
@@ -28846,28 +28846,28 @@
         <v>130.0243680027304</v>
       </c>
       <c r="R20" t="n">
-        <v>277.3526065700071</v>
+        <v>145.7301858529672</v>
       </c>
       <c r="S20" t="n">
-        <v>174.6794175959089</v>
+        <v>306.3018383129482</v>
       </c>
       <c r="T20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="U20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="V20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="W20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="X20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="Y20" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
     </row>
     <row r="21">
@@ -28904,19 +28904,19 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K21" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400939</v>
       </c>
       <c r="L21" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130888</v>
       </c>
       <c r="M21" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056944</v>
       </c>
       <c r="N21" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517105</v>
       </c>
       <c r="O21" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839743</v>
       </c>
       <c r="P21" t="n">
         <v>60.98136935834783</v>
@@ -28989,7 +28989,7 @@
         <v>78.34590850546635</v>
       </c>
       <c r="M22" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N22" t="n">
         <v>71.58137972518441</v>
@@ -28998,7 +28998,7 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P22" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q22" t="n">
         <v>105.4981853689493</v>
@@ -29035,43 +29035,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="C23" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="D23" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="E23" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="F23" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="G23" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="H23" t="n">
-        <v>324.6944408748902</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="I23" t="n">
-        <v>284.6473608349727</v>
+        <v>218.2583182984827</v>
       </c>
       <c r="J23" t="n">
-        <v>238.953933927049</v>
+        <v>107.3315132100092</v>
       </c>
       <c r="K23" t="n">
         <v>119.2206547955825</v>
       </c>
       <c r="L23" t="n">
-        <v>243.922570719306</v>
+        <v>249.2406483240345</v>
       </c>
       <c r="M23" t="n">
-        <v>236.5040303003658</v>
+        <v>104.881609583326</v>
       </c>
       <c r="N23" t="n">
-        <v>102.7921185173355</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O23" t="n">
         <v>108.0080258701201</v>
@@ -29086,25 +29086,25 @@
         <v>145.7301858529672</v>
       </c>
       <c r="S23" t="n">
-        <v>174.6794175959089</v>
+        <v>306.3018383129482</v>
       </c>
       <c r="T23" t="n">
-        <v>220.0642436627892</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2989982740355</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="V23" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="W23" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="X23" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.9170228201714</v>
+        <v>329.9170228201716</v>
       </c>
     </row>
     <row r="24">
@@ -29141,19 +29141,19 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K24" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400939</v>
       </c>
       <c r="L24" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130888</v>
       </c>
       <c r="M24" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056944</v>
       </c>
       <c r="N24" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517105</v>
       </c>
       <c r="O24" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839743</v>
       </c>
       <c r="P24" t="n">
         <v>60.98136935834783</v>
@@ -29226,7 +29226,7 @@
         <v>78.34590850546635</v>
       </c>
       <c r="M25" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N25" t="n">
         <v>71.58137972518441</v>
@@ -29235,7 +29235,7 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P25" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q25" t="n">
         <v>105.4981853689493</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="C26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="D26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="E26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="F26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="G26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="H26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="I26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K26" t="n">
-        <v>119.2206547955825</v>
+        <v>184.4222194276112</v>
       </c>
       <c r="L26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="M26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="N26" t="n">
-        <v>209.1282613130853</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>175.7734452832021</v>
+        <v>151.7817516928799</v>
       </c>
       <c r="P26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="R26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="S26" t="n">
-        <v>174.6794175959089</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="27">
@@ -29378,19 +29378,19 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K27" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400939</v>
       </c>
       <c r="L27" t="n">
-        <v>113.1592935315107</v>
+        <v>58.14149588130888</v>
       </c>
       <c r="M27" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056944</v>
       </c>
       <c r="N27" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517105</v>
       </c>
       <c r="O27" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839743</v>
       </c>
       <c r="P27" t="n">
         <v>60.98136935834783</v>
@@ -29399,7 +29399,7 @@
         <v>81.73346793160957</v>
       </c>
       <c r="R27" t="n">
-        <v>102.7991627330203</v>
+        <v>157.8169603832214</v>
       </c>
       <c r="S27" t="n">
         <v>146.6148367064899</v>
@@ -29408,13 +29408,13 @@
         <v>185.7877530736877</v>
       </c>
       <c r="U27" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V27" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W27" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -29448,31 +29448,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H28" t="n">
-        <v>155.9102360382001</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="I28" t="n">
-        <v>136.4403570291208</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="J28" t="n">
-        <v>88.32412184825276</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K28" t="n">
-        <v>86.15281246142368</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>78.34590850546635</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>71.58137972518441</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>209.1282613130853</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>209.1282613130853</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>105.4981853689493</v>
@@ -29484,22 +29484,22 @@
         <v>207.9098175327</v>
       </c>
       <c r="T28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="C29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="D29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="E29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="F29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="G29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="H29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="I29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="J29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K29" t="n">
-        <v>209.1282613130854</v>
+        <v>119.2206547955825</v>
       </c>
       <c r="L29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="M29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="N29" t="n">
-        <v>209.1282613130854</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="P29" t="n">
-        <v>209.1282613130854</v>
+        <v>189.6030632013685</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="R29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="S29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="30">
@@ -29594,7 +29594,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>137.45025063969</v>
+        <v>192.4680482898912</v>
       </c>
       <c r="E30" t="n">
         <v>145.5577298436975</v>
@@ -29603,7 +29603,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>182.2083119344262</v>
+        <v>127.1905142842246</v>
       </c>
       <c r="H30" t="n">
         <v>96.51723797799072</v>
@@ -29615,25 +29615,25 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>71.51350511400939</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>58.14149588130888</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.96206476056944</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>41.51206923517105</v>
       </c>
       <c r="O30" t="n">
-        <v>36.38424221173926</v>
+        <v>56.21137633839743</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>60.98136935834783</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R30" t="n">
         <v>102.7991627330203</v>
@@ -29645,13 +29645,13 @@
         <v>185.7877530736877</v>
       </c>
       <c r="U30" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V30" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W30" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
@@ -29667,19 +29667,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>151.5411742405149</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="F31" t="n">
-        <v>150.9558484244806</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="G31" t="n">
         <v>167.0203721066311</v>
@@ -29688,55 +29688,55 @@
         <v>155.9102360382001</v>
       </c>
       <c r="I31" t="n">
-        <v>209.1282613130854</v>
+        <v>136.4403570291208</v>
       </c>
       <c r="J31" t="n">
         <v>88.32412184825276</v>
       </c>
       <c r="K31" t="n">
-        <v>209.1282613130854</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>78.34590850546635</v>
       </c>
       <c r="M31" t="n">
-        <v>79.9306797039667</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>71.58137972518441</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>82.78808566083805</v>
       </c>
       <c r="P31" t="n">
-        <v>86.48380385827531</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>131.4110190248305</v>
+        <v>105.4981853689493</v>
       </c>
       <c r="R31" t="n">
-        <v>138.576149682035</v>
+        <v>191.5020224111007</v>
       </c>
       <c r="S31" t="n">
         <v>207.9098175327</v>
       </c>
       <c r="T31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="C32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="D32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="E32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="F32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="G32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="H32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="I32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="J32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K32" t="n">
-        <v>184.4222194276117</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="L32" t="n">
-        <v>209.1282613130853</v>
+        <v>124.1788680795439</v>
       </c>
       <c r="M32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="N32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="O32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="P32" t="n">
-        <v>120.4975665775689</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.1282613130853</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="S32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="33">
@@ -29840,7 +29840,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.1905142842246</v>
+        <v>182.208311934426</v>
       </c>
       <c r="H33" t="n">
         <v>96.51723797799072</v>
@@ -29852,25 +29852,25 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K33" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400939</v>
       </c>
       <c r="L33" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130888</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.96206476056944</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>41.51206923517105</v>
       </c>
       <c r="O33" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839743</v>
       </c>
       <c r="P33" t="n">
         <v>60.98136935834783</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R33" t="n">
         <v>102.7991627330203</v>
@@ -29882,13 +29882,13 @@
         <v>185.7877530736877</v>
       </c>
       <c r="U33" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V33" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W33" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -29910,34 +29910,34 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>209.1282613130853</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
         <v>167.0203721066311</v>
       </c>
       <c r="H34" t="n">
-        <v>155.9102360382001</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="I34" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J34" t="n">
-        <v>91.6854170072921</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K34" t="n">
-        <v>80.40428934589778</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.4981853689493</v>
+        <v>178.8741176130254</v>
       </c>
       <c r="R34" t="n">
-        <v>138.576149682035</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="S34" t="n">
         <v>207.9098175327</v>
       </c>
       <c r="T34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="C35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="D35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="E35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="F35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="G35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="H35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="I35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="J35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="K35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="L35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="M35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="O35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="R35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="S35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Y35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="36">
@@ -30089,19 +30089,19 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K36" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400939</v>
       </c>
       <c r="L36" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130888</v>
       </c>
       <c r="M36" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056944</v>
       </c>
       <c r="N36" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517105</v>
       </c>
       <c r="O36" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839743</v>
       </c>
       <c r="P36" t="n">
         <v>60.98136935834783</v>
@@ -30168,13 +30168,13 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K37" t="n">
-        <v>80.40428934589778</v>
+        <v>155.2729769675657</v>
       </c>
       <c r="L37" t="n">
         <v>78.34590850546635</v>
       </c>
       <c r="M37" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N37" t="n">
         <v>71.58137972518441</v>
@@ -30183,10 +30183,10 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P37" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q37" t="n">
-        <v>180.3668729906173</v>
+        <v>105.4981853689493</v>
       </c>
       <c r="R37" t="n">
         <v>138.576149682035</v>
@@ -30198,13 +30198,13 @@
         <v>229.9491259395436</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V37" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W37" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="C38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="D38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="E38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="F38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="G38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="H38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="I38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="J38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="K38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="L38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="M38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="O38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="R38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="S38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Y38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="39">
@@ -30326,19 +30326,19 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K39" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400939</v>
       </c>
       <c r="L39" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130888</v>
       </c>
       <c r="M39" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056944</v>
       </c>
       <c r="N39" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517105</v>
       </c>
       <c r="O39" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839743</v>
       </c>
       <c r="P39" t="n">
         <v>60.98136935834783</v>
@@ -30381,7 +30381,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>242.7884974646045</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0203721066311</v>
+        <v>241.8890597282989</v>
       </c>
       <c r="H40" t="n">
         <v>155.9102360382001</v>
@@ -30411,7 +30411,7 @@
         <v>78.34590850546635</v>
       </c>
       <c r="M40" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N40" t="n">
         <v>71.58137972518441</v>
@@ -30420,7 +30420,7 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P40" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q40" t="n">
         <v>105.4981853689493</v>
@@ -30435,13 +30435,13 @@
         <v>229.9491259395436</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V40" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W40" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="C41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="D41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="E41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="F41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="G41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="H41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="I41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="J41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="K41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="L41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="M41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="N41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="O41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="P41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="R41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="S41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="T41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="U41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="V41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="W41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="X41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="Y41" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
     </row>
     <row r="42">
@@ -30563,19 +30563,19 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K42" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400939</v>
       </c>
       <c r="L42" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130888</v>
       </c>
       <c r="M42" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056944</v>
       </c>
       <c r="N42" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517105</v>
       </c>
       <c r="O42" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839743</v>
       </c>
       <c r="P42" t="n">
         <v>60.98136935834783</v>
@@ -30633,7 +30633,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H43" t="n">
-        <v>230.7789236598679</v>
+        <v>230.7789236598681</v>
       </c>
       <c r="I43" t="n">
         <v>136.4403570291208</v>
@@ -30648,7 +30648,7 @@
         <v>78.34590850546635</v>
       </c>
       <c r="M43" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N43" t="n">
         <v>71.58137972518441</v>
@@ -30657,7 +30657,7 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P43" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q43" t="n">
         <v>105.4981853689493</v>
@@ -30672,13 +30672,13 @@
         <v>229.9491259395436</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="V43" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="W43" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -30800,19 +30800,19 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K45" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400939</v>
       </c>
       <c r="L45" t="n">
-        <v>58.14149588130889</v>
+        <v>58.14149588130888</v>
       </c>
       <c r="M45" t="n">
-        <v>51.96206476056946</v>
+        <v>51.96206476056944</v>
       </c>
       <c r="N45" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517105</v>
       </c>
       <c r="O45" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839743</v>
       </c>
       <c r="P45" t="n">
         <v>60.98136935834783</v>
@@ -30885,7 +30885,7 @@
         <v>78.34590850546635</v>
       </c>
       <c r="M46" t="n">
-        <v>79.9306797039667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N46" t="n">
         <v>71.58137972518441</v>
@@ -30894,19 +30894,19 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P46" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q46" t="n">
         <v>105.4981853689493</v>
       </c>
       <c r="R46" t="n">
-        <v>192.6103429327459</v>
+        <v>213.4448373037029</v>
       </c>
       <c r="S46" t="n">
         <v>207.9098175327</v>
       </c>
       <c r="T46" t="n">
-        <v>250.7836203105006</v>
+        <v>229.9491259395436</v>
       </c>
       <c r="U46" t="n">
         <v>250.7836203105006</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800086</v>
       </c>
       <c r="H11" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773639</v>
       </c>
       <c r="I11" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J11" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K11" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846419</v>
       </c>
       <c r="L11" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611952</v>
       </c>
       <c r="M11" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383312</v>
       </c>
       <c r="N11" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548947</v>
       </c>
       <c r="O11" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000035</v>
       </c>
       <c r="P11" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358764</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025981</v>
       </c>
       <c r="R11" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S11" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T11" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040068</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,31 +31832,31 @@
         <v>0.2507006927236293</v>
       </c>
       <c r="H12" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I12" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896888</v>
       </c>
       <c r="J12" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017412</v>
       </c>
       <c r="K12" t="n">
         <v>40.48266405265728</v>
       </c>
       <c r="L12" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983891</v>
       </c>
       <c r="M12" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107045</v>
       </c>
       <c r="N12" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253726</v>
       </c>
       <c r="O12" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271368</v>
       </c>
       <c r="P12" t="n">
-        <v>47.87283666579549</v>
+        <v>47.8728366657955</v>
       </c>
       <c r="Q12" t="n">
         <v>32.00172351328293</v>
@@ -31865,13 +31865,13 @@
         <v>15.56543423770043</v>
       </c>
       <c r="S12" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897234</v>
       </c>
       <c r="T12" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,10 +31914,10 @@
         <v>1.868682730318753</v>
       </c>
       <c r="I13" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227436</v>
       </c>
       <c r="J13" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K13" t="n">
         <v>24.41898291766221</v>
@@ -31929,25 +31929,25 @@
         <v>32.9465197534624</v>
       </c>
       <c r="N13" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O13" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P13" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165712</v>
       </c>
       <c r="Q13" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R13" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730617</v>
       </c>
       <c r="S13" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649331</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343692</v>
       </c>
       <c r="U13" t="n">
         <v>0.01146431122894941</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800086</v>
       </c>
       <c r="H14" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773639</v>
       </c>
       <c r="I14" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J14" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K14" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846419</v>
       </c>
       <c r="L14" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611952</v>
       </c>
       <c r="M14" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383312</v>
       </c>
       <c r="N14" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548947</v>
       </c>
       <c r="O14" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000035</v>
       </c>
       <c r="P14" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358764</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025981</v>
       </c>
       <c r="R14" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S14" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T14" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040068</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,31 +32069,31 @@
         <v>0.2507006927236293</v>
       </c>
       <c r="H15" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I15" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896888</v>
       </c>
       <c r="J15" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017412</v>
       </c>
       <c r="K15" t="n">
         <v>40.48266405265728</v>
       </c>
       <c r="L15" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983891</v>
       </c>
       <c r="M15" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107045</v>
       </c>
       <c r="N15" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253726</v>
       </c>
       <c r="O15" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271368</v>
       </c>
       <c r="P15" t="n">
-        <v>47.87283666579549</v>
+        <v>47.8728366657955</v>
       </c>
       <c r="Q15" t="n">
         <v>32.00172351328293</v>
@@ -32102,13 +32102,13 @@
         <v>15.56543423770043</v>
       </c>
       <c r="S15" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897234</v>
       </c>
       <c r="T15" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>1.868682730318753</v>
       </c>
       <c r="I16" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227436</v>
       </c>
       <c r="J16" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K16" t="n">
         <v>24.41898291766221</v>
@@ -32166,25 +32166,25 @@
         <v>32.9465197534624</v>
       </c>
       <c r="N16" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O16" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P16" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165712</v>
       </c>
       <c r="Q16" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R16" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730617</v>
       </c>
       <c r="S16" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649331</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343692</v>
       </c>
       <c r="U16" t="n">
         <v>0.01146431122894941</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800086</v>
       </c>
       <c r="H17" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773639</v>
       </c>
       <c r="I17" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J17" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K17" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846419</v>
       </c>
       <c r="L17" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611952</v>
       </c>
       <c r="M17" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383312</v>
       </c>
       <c r="N17" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548947</v>
       </c>
       <c r="O17" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000035</v>
       </c>
       <c r="P17" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358764</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025981</v>
       </c>
       <c r="R17" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S17" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T17" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040068</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,31 +32306,31 @@
         <v>0.2507006927236293</v>
       </c>
       <c r="H18" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I18" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896888</v>
       </c>
       <c r="J18" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017412</v>
       </c>
       <c r="K18" t="n">
         <v>40.48266405265728</v>
       </c>
       <c r="L18" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983891</v>
       </c>
       <c r="M18" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107045</v>
       </c>
       <c r="N18" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253726</v>
       </c>
       <c r="O18" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271368</v>
       </c>
       <c r="P18" t="n">
-        <v>47.87283666579549</v>
+        <v>47.8728366657955</v>
       </c>
       <c r="Q18" t="n">
         <v>32.00172351328293</v>
@@ -32339,13 +32339,13 @@
         <v>15.56543423770043</v>
       </c>
       <c r="S18" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897234</v>
       </c>
       <c r="T18" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>1.868682730318753</v>
       </c>
       <c r="I19" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227436</v>
       </c>
       <c r="J19" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K19" t="n">
         <v>24.41898291766221</v>
@@ -32403,25 +32403,25 @@
         <v>32.9465197534624</v>
       </c>
       <c r="N19" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O19" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P19" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165712</v>
       </c>
       <c r="Q19" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R19" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730617</v>
       </c>
       <c r="S19" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649331</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343692</v>
       </c>
       <c r="U19" t="n">
         <v>0.01146431122894941</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800086</v>
       </c>
       <c r="H20" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773639</v>
       </c>
       <c r="I20" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J20" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K20" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846419</v>
       </c>
       <c r="L20" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611952</v>
       </c>
       <c r="M20" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383312</v>
       </c>
       <c r="N20" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548947</v>
       </c>
       <c r="O20" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000035</v>
       </c>
       <c r="P20" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358764</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025981</v>
       </c>
       <c r="R20" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S20" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T20" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040068</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,31 +32543,31 @@
         <v>0.2507006927236293</v>
       </c>
       <c r="H21" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I21" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896888</v>
       </c>
       <c r="J21" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017412</v>
       </c>
       <c r="K21" t="n">
         <v>40.48266405265728</v>
       </c>
       <c r="L21" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983891</v>
       </c>
       <c r="M21" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107045</v>
       </c>
       <c r="N21" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253726</v>
       </c>
       <c r="O21" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271368</v>
       </c>
       <c r="P21" t="n">
-        <v>47.87283666579549</v>
+        <v>47.8728366657955</v>
       </c>
       <c r="Q21" t="n">
         <v>32.00172351328293</v>
@@ -32576,13 +32576,13 @@
         <v>15.56543423770043</v>
       </c>
       <c r="S21" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897234</v>
       </c>
       <c r="T21" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>1.868682730318753</v>
       </c>
       <c r="I22" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227436</v>
       </c>
       <c r="J22" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K22" t="n">
         <v>24.41898291766221</v>
@@ -32640,25 +32640,25 @@
         <v>32.9465197534624</v>
       </c>
       <c r="N22" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O22" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P22" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165712</v>
       </c>
       <c r="Q22" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R22" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730617</v>
       </c>
       <c r="S22" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649331</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343692</v>
       </c>
       <c r="U22" t="n">
         <v>0.01146431122894941</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800086</v>
       </c>
       <c r="H23" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773639</v>
       </c>
       <c r="I23" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J23" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K23" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846419</v>
       </c>
       <c r="L23" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611952</v>
       </c>
       <c r="M23" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383312</v>
       </c>
       <c r="N23" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548947</v>
       </c>
       <c r="O23" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000035</v>
       </c>
       <c r="P23" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358764</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025981</v>
       </c>
       <c r="R23" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S23" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T23" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040068</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,31 +32780,31 @@
         <v>0.2507006927236293</v>
       </c>
       <c r="H24" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I24" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896888</v>
       </c>
       <c r="J24" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017412</v>
       </c>
       <c r="K24" t="n">
         <v>40.48266405265728</v>
       </c>
       <c r="L24" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983891</v>
       </c>
       <c r="M24" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107045</v>
       </c>
       <c r="N24" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253726</v>
       </c>
       <c r="O24" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271368</v>
       </c>
       <c r="P24" t="n">
-        <v>47.87283666579549</v>
+        <v>47.8728366657955</v>
       </c>
       <c r="Q24" t="n">
         <v>32.00172351328293</v>
@@ -32813,13 +32813,13 @@
         <v>15.56543423770043</v>
       </c>
       <c r="S24" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897234</v>
       </c>
       <c r="T24" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>1.868682730318753</v>
       </c>
       <c r="I25" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227436</v>
       </c>
       <c r="J25" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K25" t="n">
         <v>24.41898291766221</v>
@@ -32877,25 +32877,25 @@
         <v>32.9465197534624</v>
       </c>
       <c r="N25" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O25" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P25" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165712</v>
       </c>
       <c r="Q25" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R25" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730617</v>
       </c>
       <c r="S25" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649331</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343692</v>
       </c>
       <c r="U25" t="n">
         <v>0.01146431122894941</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800086</v>
       </c>
       <c r="H26" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773639</v>
       </c>
       <c r="I26" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J26" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K26" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846419</v>
       </c>
       <c r="L26" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611952</v>
       </c>
       <c r="M26" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383312</v>
       </c>
       <c r="N26" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548947</v>
       </c>
       <c r="O26" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000035</v>
       </c>
       <c r="P26" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358764</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025981</v>
       </c>
       <c r="R26" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S26" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T26" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040068</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,31 +33017,31 @@
         <v>0.2507006927236293</v>
       </c>
       <c r="H27" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I27" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896888</v>
       </c>
       <c r="J27" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017412</v>
       </c>
       <c r="K27" t="n">
         <v>40.48266405265728</v>
       </c>
       <c r="L27" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983891</v>
       </c>
       <c r="M27" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107045</v>
       </c>
       <c r="N27" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253726</v>
       </c>
       <c r="O27" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271368</v>
       </c>
       <c r="P27" t="n">
-        <v>47.87283666579549</v>
+        <v>47.8728366657955</v>
       </c>
       <c r="Q27" t="n">
         <v>32.00172351328293</v>
@@ -33050,13 +33050,13 @@
         <v>15.56543423770043</v>
       </c>
       <c r="S27" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897234</v>
       </c>
       <c r="T27" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>1.868682730318753</v>
       </c>
       <c r="I28" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227436</v>
       </c>
       <c r="J28" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K28" t="n">
         <v>24.41898291766221</v>
@@ -33114,25 +33114,25 @@
         <v>32.9465197534624</v>
       </c>
       <c r="N28" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O28" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P28" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165712</v>
       </c>
       <c r="Q28" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R28" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730617</v>
       </c>
       <c r="S28" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649331</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343692</v>
       </c>
       <c r="U28" t="n">
         <v>0.01146431122894941</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800086</v>
       </c>
       <c r="H29" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773639</v>
       </c>
       <c r="I29" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J29" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K29" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846419</v>
       </c>
       <c r="L29" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611952</v>
       </c>
       <c r="M29" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383312</v>
       </c>
       <c r="N29" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548947</v>
       </c>
       <c r="O29" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000035</v>
       </c>
       <c r="P29" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358764</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025981</v>
       </c>
       <c r="R29" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S29" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T29" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040068</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,31 +33254,31 @@
         <v>0.2507006927236293</v>
       </c>
       <c r="H30" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I30" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896888</v>
       </c>
       <c r="J30" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017412</v>
       </c>
       <c r="K30" t="n">
         <v>40.48266405265728</v>
       </c>
       <c r="L30" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983891</v>
       </c>
       <c r="M30" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107045</v>
       </c>
       <c r="N30" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253726</v>
       </c>
       <c r="O30" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271368</v>
       </c>
       <c r="P30" t="n">
-        <v>47.87283666579549</v>
+        <v>47.8728366657955</v>
       </c>
       <c r="Q30" t="n">
         <v>32.00172351328293</v>
@@ -33287,13 +33287,13 @@
         <v>15.56543423770043</v>
       </c>
       <c r="S30" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897234</v>
       </c>
       <c r="T30" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,10 +33336,10 @@
         <v>1.868682730318753</v>
       </c>
       <c r="I31" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227436</v>
       </c>
       <c r="J31" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K31" t="n">
         <v>24.41898291766221</v>
@@ -33351,25 +33351,25 @@
         <v>32.9465197534624</v>
       </c>
       <c r="N31" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O31" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P31" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165712</v>
       </c>
       <c r="Q31" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R31" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730617</v>
       </c>
       <c r="S31" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649331</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343692</v>
       </c>
       <c r="U31" t="n">
         <v>0.01146431122894941</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800086</v>
       </c>
       <c r="H32" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773639</v>
       </c>
       <c r="I32" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J32" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K32" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846419</v>
       </c>
       <c r="L32" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611952</v>
       </c>
       <c r="M32" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383312</v>
       </c>
       <c r="N32" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548947</v>
       </c>
       <c r="O32" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000035</v>
       </c>
       <c r="P32" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358764</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025981</v>
       </c>
       <c r="R32" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S32" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T32" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040068</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,31 +33491,31 @@
         <v>0.2507006927236293</v>
       </c>
       <c r="H33" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I33" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896888</v>
       </c>
       <c r="J33" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017412</v>
       </c>
       <c r="K33" t="n">
         <v>40.48266405265728</v>
       </c>
       <c r="L33" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983891</v>
       </c>
       <c r="M33" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107045</v>
       </c>
       <c r="N33" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253726</v>
       </c>
       <c r="O33" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271368</v>
       </c>
       <c r="P33" t="n">
-        <v>47.87283666579549</v>
+        <v>47.8728366657955</v>
       </c>
       <c r="Q33" t="n">
         <v>32.00172351328293</v>
@@ -33524,13 +33524,13 @@
         <v>15.56543423770043</v>
       </c>
       <c r="S33" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897234</v>
       </c>
       <c r="T33" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>1.868682730318753</v>
       </c>
       <c r="I34" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227436</v>
       </c>
       <c r="J34" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K34" t="n">
         <v>24.41898291766221</v>
@@ -33588,25 +33588,25 @@
         <v>32.9465197534624</v>
       </c>
       <c r="N34" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O34" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P34" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165712</v>
       </c>
       <c r="Q34" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R34" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730617</v>
       </c>
       <c r="S34" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649331</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343692</v>
       </c>
       <c r="U34" t="n">
         <v>0.01146431122894941</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800086</v>
       </c>
       <c r="H35" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773639</v>
       </c>
       <c r="I35" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J35" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K35" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846419</v>
       </c>
       <c r="L35" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611952</v>
       </c>
       <c r="M35" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383312</v>
       </c>
       <c r="N35" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548947</v>
       </c>
       <c r="O35" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000035</v>
       </c>
       <c r="P35" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358764</v>
       </c>
       <c r="Q35" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025981</v>
       </c>
       <c r="R35" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S35" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T35" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040068</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,31 +33728,31 @@
         <v>0.2507006927236293</v>
       </c>
       <c r="H36" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I36" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896888</v>
       </c>
       <c r="J36" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017412</v>
       </c>
       <c r="K36" t="n">
         <v>40.48266405265728</v>
       </c>
       <c r="L36" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983891</v>
       </c>
       <c r="M36" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107045</v>
       </c>
       <c r="N36" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253726</v>
       </c>
       <c r="O36" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271368</v>
       </c>
       <c r="P36" t="n">
-        <v>47.87283666579549</v>
+        <v>47.8728366657955</v>
       </c>
       <c r="Q36" t="n">
         <v>32.00172351328293</v>
@@ -33761,13 +33761,13 @@
         <v>15.56543423770043</v>
       </c>
       <c r="S36" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897234</v>
       </c>
       <c r="T36" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>1.868682730318753</v>
       </c>
       <c r="I37" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227436</v>
       </c>
       <c r="J37" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K37" t="n">
         <v>24.41898291766221</v>
@@ -33825,25 +33825,25 @@
         <v>32.9465197534624</v>
       </c>
       <c r="N37" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O37" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P37" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165712</v>
       </c>
       <c r="Q37" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R37" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730617</v>
       </c>
       <c r="S37" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649331</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343692</v>
       </c>
       <c r="U37" t="n">
         <v>0.01146431122894941</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800086</v>
       </c>
       <c r="H38" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773639</v>
       </c>
       <c r="I38" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J38" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K38" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846419</v>
       </c>
       <c r="L38" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611952</v>
       </c>
       <c r="M38" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383312</v>
       </c>
       <c r="N38" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548947</v>
       </c>
       <c r="O38" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000035</v>
       </c>
       <c r="P38" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358764</v>
       </c>
       <c r="Q38" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025981</v>
       </c>
       <c r="R38" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S38" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T38" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040068</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,31 +33965,31 @@
         <v>0.2507006927236293</v>
       </c>
       <c r="H39" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I39" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896888</v>
       </c>
       <c r="J39" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017412</v>
       </c>
       <c r="K39" t="n">
         <v>40.48266405265728</v>
       </c>
       <c r="L39" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983891</v>
       </c>
       <c r="M39" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107045</v>
       </c>
       <c r="N39" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253726</v>
       </c>
       <c r="O39" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271368</v>
       </c>
       <c r="P39" t="n">
-        <v>47.87283666579549</v>
+        <v>47.8728366657955</v>
       </c>
       <c r="Q39" t="n">
         <v>32.00172351328293</v>
@@ -33998,13 +33998,13 @@
         <v>15.56543423770043</v>
       </c>
       <c r="S39" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897234</v>
       </c>
       <c r="T39" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,10 +34047,10 @@
         <v>1.868682730318753</v>
       </c>
       <c r="I40" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227436</v>
       </c>
       <c r="J40" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K40" t="n">
         <v>24.41898291766221</v>
@@ -34062,25 +34062,25 @@
         <v>32.9465197534624</v>
       </c>
       <c r="N40" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O40" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P40" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165712</v>
       </c>
       <c r="Q40" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R40" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730617</v>
       </c>
       <c r="S40" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649331</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343692</v>
       </c>
       <c r="U40" t="n">
         <v>0.01146431122894941</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800086</v>
       </c>
       <c r="H41" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773639</v>
       </c>
       <c r="I41" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J41" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K41" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846419</v>
       </c>
       <c r="L41" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611952</v>
       </c>
       <c r="M41" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383312</v>
       </c>
       <c r="N41" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548947</v>
       </c>
       <c r="O41" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000035</v>
       </c>
       <c r="P41" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358764</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025981</v>
       </c>
       <c r="R41" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S41" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T41" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040068</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,31 +34202,31 @@
         <v>0.2507006927236293</v>
       </c>
       <c r="H42" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I42" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896888</v>
       </c>
       <c r="J42" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017412</v>
       </c>
       <c r="K42" t="n">
         <v>40.48266405265728</v>
       </c>
       <c r="L42" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983891</v>
       </c>
       <c r="M42" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107045</v>
       </c>
       <c r="N42" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253726</v>
       </c>
       <c r="O42" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271368</v>
       </c>
       <c r="P42" t="n">
-        <v>47.87283666579549</v>
+        <v>47.8728366657955</v>
       </c>
       <c r="Q42" t="n">
         <v>32.00172351328293</v>
@@ -34235,13 +34235,13 @@
         <v>15.56543423770043</v>
       </c>
       <c r="S42" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897234</v>
       </c>
       <c r="T42" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>1.868682730318753</v>
       </c>
       <c r="I43" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227436</v>
       </c>
       <c r="J43" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K43" t="n">
         <v>24.41898291766221</v>
@@ -34299,25 +34299,25 @@
         <v>32.9465197534624</v>
       </c>
       <c r="N43" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O43" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P43" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165712</v>
       </c>
       <c r="Q43" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R43" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730617</v>
       </c>
       <c r="S43" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649331</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343692</v>
       </c>
       <c r="U43" t="n">
         <v>0.01146431122894941</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800086</v>
       </c>
       <c r="H44" t="n">
-        <v>4.798620783773638</v>
+        <v>4.798620783773639</v>
       </c>
       <c r="I44" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J44" t="n">
-        <v>39.7682842179234</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K44" t="n">
-        <v>59.60234917846417</v>
+        <v>59.60234917846419</v>
       </c>
       <c r="L44" t="n">
-        <v>73.94198455611949</v>
+        <v>73.94198455611952</v>
       </c>
       <c r="M44" t="n">
-        <v>82.27470491383309</v>
+        <v>82.27470491383312</v>
       </c>
       <c r="N44" t="n">
-        <v>83.60599565489467</v>
+        <v>83.6059956548947</v>
       </c>
       <c r="O44" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000035</v>
       </c>
       <c r="P44" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358764</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025981</v>
       </c>
       <c r="R44" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S44" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T44" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03748464911040067</v>
+        <v>0.03748464911040068</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,31 +34439,31 @@
         <v>0.2507006927236293</v>
       </c>
       <c r="H45" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I45" t="n">
-        <v>8.631580867896885</v>
+        <v>8.631580867896888</v>
       </c>
       <c r="J45" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017412</v>
       </c>
       <c r="K45" t="n">
         <v>40.48266405265728</v>
       </c>
       <c r="L45" t="n">
-        <v>54.43393768983889</v>
+        <v>54.43393768983891</v>
       </c>
       <c r="M45" t="n">
-        <v>63.52183780107043</v>
+        <v>63.52183780107045</v>
       </c>
       <c r="N45" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253726</v>
       </c>
       <c r="O45" t="n">
-        <v>59.64807227271366</v>
+        <v>59.64807227271368</v>
       </c>
       <c r="P45" t="n">
-        <v>47.87283666579549</v>
+        <v>47.8728366657955</v>
       </c>
       <c r="Q45" t="n">
         <v>32.00172351328293</v>
@@ -34472,13 +34472,13 @@
         <v>15.56543423770043</v>
       </c>
       <c r="S45" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897234</v>
       </c>
       <c r="T45" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>1.868682730318753</v>
       </c>
       <c r="I46" t="n">
-        <v>6.320656924227435</v>
+        <v>6.320656924227436</v>
       </c>
       <c r="J46" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K46" t="n">
         <v>24.41898291766221</v>
@@ -34536,25 +34536,25 @@
         <v>32.9465197534624</v>
       </c>
       <c r="N46" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O46" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P46" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165712</v>
       </c>
       <c r="Q46" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R46" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730617</v>
       </c>
       <c r="S46" t="n">
-        <v>3.66284743764933</v>
+        <v>3.662847437649331</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8980377129343691</v>
+        <v>0.8980377129343692</v>
       </c>
       <c r="U46" t="n">
         <v>0.01146431122894941</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.03930354485625</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>112.7327304527799</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>102.446016055794</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>29.19479567323926</v>
+        <v>99.78995084877816</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>112.0562177926691</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>99.56667708522032</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03987566005873</v>
+        <v>90.03987566005877</v>
       </c>
       <c r="R11" t="n">
-        <v>74.33405780982191</v>
+        <v>74.33405780982196</v>
       </c>
       <c r="S11" t="n">
-        <v>45.38482606688028</v>
+        <v>45.38482606688031</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35462,7 +35462,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.39117343086839</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.39117343086832</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>69.57531956649481</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35571,13 +35571,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>118.2147386936312</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>73.47343640942947</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>114.5660582938399</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35610,7 +35610,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2494364431434803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -35641,16 +35641,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.03930354485628</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>112.7327304527799</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>100.8435888672066</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>102.4460160557941</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,19 +35659,19 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>112.0562177926691</v>
       </c>
       <c r="P14" t="n">
-        <v>99.56667708522031</v>
+        <v>99.56667708522032</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03987566005875</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>5.564603586428102</v>
+        <v>74.33405780982196</v>
       </c>
       <c r="S14" t="n">
-        <v>45.38482606688031</v>
+        <v>31.92504765271647</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>25.39117343086833</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.39117343086832</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35787,7 +35787,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>69.57531956649484</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35796,7 +35796,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>64.15400762458903</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35808,10 +35808,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>54.31016751218551</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.41707398622955</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35875,10 +35875,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.222581945281215</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35902,19 +35902,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>70.45596012583125</v>
       </c>
       <c r="R17" t="n">
-        <v>65.23337818055137</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="T17" t="n">
-        <v>109.8527791573822</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="U17" t="n">
-        <v>77.61802454613589</v>
+        <v>77.61802454613611</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36112,16 +36112,16 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.222581945281272</v>
+        <v>5.222581945281444</v>
       </c>
       <c r="I20" t="n">
-        <v>65.23337818055131</v>
+        <v>65.23337818054981</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,16 +36142,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="T20" t="n">
-        <v>109.8527791573822</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="U20" t="n">
-        <v>77.61802454613594</v>
+        <v>77.61802454613611</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36349,22 +36349,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.222581945281444</v>
       </c>
       <c r="I23" t="n">
-        <v>131.6224207170398</v>
+        <v>65.23337818054981</v>
       </c>
       <c r="J23" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>126.3043431123109</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="M23" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36382,13 +36382,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>77.61802454613611</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>56.10332119515245</v>
+        <v>56.10332119515265</v>
       </c>
       <c r="J26" t="n">
-        <v>112.4940865136867</v>
+        <v>321.6223478267722</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="L26" t="n">
-        <v>91.51003370609023</v>
+        <v>91.51003370609045</v>
       </c>
       <c r="M26" t="n">
-        <v>104.2466517297593</v>
+        <v>385.5111529898088</v>
       </c>
       <c r="N26" t="n">
-        <v>106.3361427957499</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>486.5906009745433</v>
+        <v>43.77372582275977</v>
       </c>
       <c r="P26" t="n">
-        <v>465.4785382179632</v>
+        <v>88.63069473551668</v>
       </c>
       <c r="Q26" t="n">
-        <v>355.1133811682311</v>
+        <v>355.1133811682312</v>
       </c>
       <c r="R26" t="n">
-        <v>148.8294212949953</v>
+        <v>63.39807546011831</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>34.44884371717668</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>55.01779765020177</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>55.01779765020116</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36744,16 +36744,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>53.21802527488539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.68790428396473</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>128.8272266637318</v>
       </c>
       <c r="K28" t="n">
-        <v>5.748523115525896</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36765,10 +36765,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>126.3401756522473</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>122.64445745481</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>56.1033211951525</v>
+        <v>56.10332119515265</v>
       </c>
       <c r="J29" t="n">
-        <v>321.6223478267721</v>
+        <v>321.6223478267722</v>
       </c>
       <c r="K29" t="n">
-        <v>486.5906009745433</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>91.51003370609028</v>
+        <v>91.51003370609045</v>
       </c>
       <c r="M29" t="n">
-        <v>237.5173901819439</v>
+        <v>448.8100769242856</v>
       </c>
       <c r="N29" t="n">
-        <v>106.33614279575</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="P29" t="n">
-        <v>88.63069473551653</v>
+        <v>69.1054966237996</v>
       </c>
       <c r="Q29" t="n">
-        <v>355.1133811682311</v>
+        <v>355.1133811682312</v>
       </c>
       <c r="R29" t="n">
-        <v>148.8294212949953</v>
+        <v>63.39807546011831</v>
       </c>
       <c r="S29" t="n">
-        <v>34.44884371717653</v>
+        <v>34.44884371717668</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36890,7 +36890,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>55.01779765020116</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -36899,7 +36899,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>55.01779765020159</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -36963,19 +36963,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.40844631554938</v>
+        <v>27.40844631554953</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>57.58708707257065</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>58.6393372167912</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>58.1724128886049</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,13 +36984,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.68790428396458</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>128.7239719671876</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37008,10 +37008,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.91283365588127</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>52.92587272906571</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10332119515245</v>
+        <v>56.10332119515256</v>
       </c>
       <c r="J32" t="n">
-        <v>321.622347826772</v>
+        <v>101.7967481030763</v>
       </c>
       <c r="K32" t="n">
-        <v>486.5906009745433</v>
+        <v>89.90760651750293</v>
       </c>
       <c r="L32" t="n">
-        <v>91.51003370609023</v>
+        <v>6.560640472548812</v>
       </c>
       <c r="M32" t="n">
-        <v>225.0278494744956</v>
+        <v>104.2466517297595</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3361427957499</v>
+        <v>351.0739685966034</v>
       </c>
       <c r="O32" t="n">
-        <v>101.1202354429652</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="Q32" t="n">
-        <v>355.1133811682311</v>
+        <v>145.9851198551457</v>
       </c>
       <c r="R32" t="n">
-        <v>148.8294212949953</v>
+        <v>63.39807546011823</v>
       </c>
       <c r="S32" t="n">
-        <v>34.44884371717647</v>
+        <v>34.44884371717659</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37136,7 +37136,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>55.01779765020142</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>55.01779765020177</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37206,34 +37206,34 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>57.58708707257057</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>58.1724128886047</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>53.21802527488531</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.361295159039342</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>41.06756869662657</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>152.1318794783126</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.37593224407618</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>70.55211163105051</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,19 +37300,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>97.75868019256772</v>
+        <v>97.75868019256775</v>
       </c>
       <c r="J35" t="n">
         <v>143.4521071004914</v>
       </c>
       <c r="K35" t="n">
-        <v>131.5629655149179</v>
+        <v>131.5629655149181</v>
       </c>
       <c r="L35" t="n">
-        <v>133.1653927035055</v>
+        <v>133.1653927035056</v>
       </c>
       <c r="M35" t="n">
-        <v>145.9020107271746</v>
+        <v>145.9020107271747</v>
       </c>
       <c r="N35" t="n">
         <v>147.9915017931652</v>
@@ -37321,19 +37321,19 @@
         <v>142.7755944403805</v>
       </c>
       <c r="P35" t="n">
-        <v>130.2860537329317</v>
+        <v>130.2860537329318</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.7592523077702</v>
+        <v>120.7592523077695</v>
       </c>
       <c r="R35" t="n">
         <v>105.0534344575334</v>
       </c>
       <c r="S35" t="n">
-        <v>76.10420271459175</v>
+        <v>76.10420271459179</v>
       </c>
       <c r="T35" t="n">
-        <v>30.71937664771143</v>
+        <v>30.71937664771146</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>74.86868762166789</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.86868762166797</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>97.75868019256772</v>
+        <v>97.75868019256775</v>
       </c>
       <c r="J38" t="n">
         <v>143.4521071004914</v>
@@ -37546,10 +37546,10 @@
         <v>131.5629655149181</v>
       </c>
       <c r="L38" t="n">
-        <v>133.1653927035055</v>
+        <v>133.1653927035056</v>
       </c>
       <c r="M38" t="n">
-        <v>145.9020107271756</v>
+        <v>145.9020107271747</v>
       </c>
       <c r="N38" t="n">
         <v>147.9915017931652</v>
@@ -37558,7 +37558,7 @@
         <v>142.7755944403805</v>
       </c>
       <c r="P38" t="n">
-        <v>130.2860537329317</v>
+        <v>130.2860537329318</v>
       </c>
       <c r="Q38" t="n">
         <v>120.7592523077702</v>
@@ -37567,10 +37567,10 @@
         <v>105.0534344575334</v>
       </c>
       <c r="S38" t="n">
-        <v>76.10420271459175</v>
+        <v>76.10420271459179</v>
       </c>
       <c r="T38" t="n">
-        <v>30.71937664771143</v>
+        <v>30.71937664771147</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>74.86868762166797</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>74.86868762166787</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37774,16 +37774,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>97.75868019256782</v>
+        <v>97.75868019256772</v>
       </c>
       <c r="J41" t="n">
-        <v>143.4521071004915</v>
+        <v>143.452107100492</v>
       </c>
       <c r="K41" t="n">
-        <v>131.5629655149182</v>
+        <v>131.5629655149181</v>
       </c>
       <c r="L41" t="n">
-        <v>133.1653927035056</v>
+        <v>133.1653927035055</v>
       </c>
       <c r="M41" t="n">
         <v>145.9020107271747</v>
@@ -37792,22 +37792,22 @@
         <v>147.9915017931652</v>
       </c>
       <c r="O41" t="n">
-        <v>142.7755944403806</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P41" t="n">
-        <v>130.2860537329318</v>
+        <v>130.2860537329317</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.7592523077703</v>
+        <v>120.7592523077702</v>
       </c>
       <c r="R41" t="n">
-        <v>105.0534344575335</v>
+        <v>105.0534344575334</v>
       </c>
       <c r="S41" t="n">
-        <v>76.10420271459185</v>
+        <v>76.10420271459176</v>
       </c>
       <c r="T41" t="n">
-        <v>30.71937664771153</v>
+        <v>30.71937664771143</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>74.86868762166772</v>
+        <v>74.86868762166796</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>133.1653927035055</v>
       </c>
       <c r="M44" t="n">
-        <v>145.9020107271746</v>
+        <v>145.9020107271753</v>
       </c>
       <c r="N44" t="n">
         <v>147.9915017931652</v>
       </c>
       <c r="O44" t="n">
-        <v>142.7755944403804</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P44" t="n">
         <v>130.2860537329317</v>
@@ -38041,7 +38041,7 @@
         <v>105.0534344575334</v>
       </c>
       <c r="S44" t="n">
-        <v>76.10420271459175</v>
+        <v>76.10420271459176</v>
       </c>
       <c r="T44" t="n">
         <v>30.71937664771143</v>
@@ -38196,13 +38196,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>54.03419325071093</v>
+        <v>74.86868762166796</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>20.83449437095705</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
